--- a/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
+++ b/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
   <si>
     <t>bien</t>
   </si>
@@ -21,6 +21,12 @@
     <t>Arroz, harina de arroz</t>
   </si>
   <si>
+    <t>Avena, avena en hojuelas, harina de avena</t>
+  </si>
+  <si>
+    <t>Galletas, dulces, saladas, integrales</t>
+  </si>
+  <si>
     <t>Harina de maiz</t>
   </si>
   <si>
@@ -33,21 +39,69 @@
     <t>Pastas alimenticias</t>
   </si>
   <si>
+    <t>Fororo</t>
+  </si>
+  <si>
+    <t>Otro (especifique)</t>
+  </si>
+  <si>
     <t>Carne de res (bistec, carne molida, carne para esmechar)</t>
   </si>
   <si>
+    <t>Visceras (higado, riñonada, corazon, asadura, morcillas)</t>
+  </si>
+  <si>
+    <t>Chuleta de cerdo ahumada</t>
+  </si>
+  <si>
+    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
+  </si>
+  <si>
+    <t>Hueso de res, pata de res, pata de pollo</t>
+  </si>
+  <si>
+    <t>Chorizo, jamon, mortadela y otros embutidos</t>
+  </si>
+  <si>
+    <t>Carne enlatada</t>
+  </si>
+  <si>
     <t>Carne de pollo</t>
   </si>
   <si>
+    <t>Pescado enlatado</t>
+  </si>
+  <si>
+    <t>Sardinas frescas/congeladas</t>
+  </si>
+  <si>
+    <t>Atun fresco/congelado</t>
+  </si>
+  <si>
     <t>Pescado fresco</t>
   </si>
   <si>
+    <t>Pescado seco/salado</t>
+  </si>
+  <si>
+    <t>Leche liquida, completa o descremada</t>
+  </si>
+  <si>
     <t>Leche en polvo, completa o descremada</t>
   </si>
   <si>
+    <t>Queso requeson, ricota</t>
+  </si>
+  <si>
     <t>Queso blanco</t>
   </si>
   <si>
+    <t>Queso amarillo</t>
+  </si>
+  <si>
+    <t>Suero, natilla, nata</t>
+  </si>
+  <si>
     <t>Huevos (unidades)</t>
   </si>
   <si>
@@ -63,18 +117,42 @@
     <t>Cambur</t>
   </si>
   <si>
+    <t>Mangos</t>
+  </si>
+  <si>
     <t>Platanos</t>
   </si>
   <si>
+    <t>Lechosa</t>
+  </si>
+  <si>
+    <t>Guayaba</t>
+  </si>
+  <si>
     <t>Tomates</t>
   </si>
   <si>
+    <t>Aguacate</t>
+  </si>
+  <si>
     <t>Aji dulce, pimenton, pimiento</t>
   </si>
   <si>
     <t>Cebolla</t>
   </si>
   <si>
+    <t>Auyama</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Berenjena</t>
+  </si>
+  <si>
+    <t>Zanahorias</t>
+  </si>
+  <si>
     <t>Cebollin, ajoporro, cilantro y similares</t>
   </si>
   <si>
@@ -87,19 +165,82 @@
     <t>Lentejas</t>
   </si>
   <si>
+    <t>Garbanzo</t>
+  </si>
+  <si>
+    <t>Nueces</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Merey</t>
+  </si>
+  <si>
     <t>Yuca</t>
   </si>
   <si>
     <t>Papas</t>
   </si>
   <si>
+    <t>Ocumo</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Casabe</t>
+  </si>
+  <si>
     <t>Azucar</t>
   </si>
   <si>
+    <t>Papelon</t>
+  </si>
+  <si>
+    <t>Edulcorantes</t>
+  </si>
+  <si>
+    <t>Miel</t>
+  </si>
+  <si>
+    <t>Melaza</t>
+  </si>
+  <si>
     <t>Cafe</t>
   </si>
   <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Bebida achocolatada</t>
+  </si>
+  <si>
     <t>Sal</t>
+  </si>
+  <si>
+    <t>Concentrados (cubitos, sopas de sobre)</t>
+  </si>
+  <si>
+    <t>Salsa de tomate</t>
+  </si>
+  <si>
+    <t>Otras salsas</t>
+  </si>
+  <si>
+    <t>Jugos</t>
+  </si>
+  <si>
+    <t>Agua embotellada</t>
+  </si>
+  <si>
+    <t>Gaseosas/refrescos</t>
+  </si>
+  <si>
+    <t>Otras bebidas no alcoholicas</t>
+  </si>
+  <si>
+    <t>Bebidas alcoholicas</t>
   </si>
   <si>
     <t>cantidad_ajustada</t>
@@ -157,7 +298,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:E89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -165,16 +306,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2">
@@ -199,16 +340,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>125.63386194155223</v>
+        <v>0</v>
       </c>
       <c r="C3" s="1">
         <v>4723</v>
       </c>
       <c r="D3" s="1">
-        <v>3.8299999237060547</v>
+        <v>4.125</v>
       </c>
       <c r="E3" s="1">
-        <v>481.17767333984375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -216,16 +357,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>18.338965379810677</v>
+        <v>0</v>
       </c>
       <c r="C4" s="1">
         <v>4723</v>
       </c>
       <c r="D4" s="1">
-        <v>3.5499999523162842</v>
+        <v>4.5275001525878906</v>
       </c>
       <c r="E4" s="1">
-        <v>65.103324890136719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -233,16 +374,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>1.8439675338586812</v>
+        <v>125.63386194155223</v>
       </c>
       <c r="C5" s="1">
         <v>4723</v>
       </c>
       <c r="D5" s="1">
-        <v>2.8466665744781494</v>
+        <v>3.8299999237060547</v>
       </c>
       <c r="E5" s="1">
-        <v>5.2491607666015625</v>
+        <v>481.17767333984375</v>
       </c>
     </row>
     <row r="6">
@@ -250,16 +391,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>57.066627874784288</v>
+        <v>18.338965379810677</v>
       </c>
       <c r="C6" s="1">
         <v>4723</v>
       </c>
       <c r="D6" s="1">
-        <v>1.375</v>
+        <v>3.5499999523162842</v>
       </c>
       <c r="E6" s="1">
-        <v>78.46661376953125</v>
+        <v>65.103324890136719</v>
       </c>
     </row>
     <row r="7">
@@ -267,16 +408,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>35.773522600541042</v>
+        <v>1.8439675338586812</v>
       </c>
       <c r="C7" s="1">
         <v>4723</v>
       </c>
       <c r="D7" s="1">
-        <v>1.9650000333786011</v>
+        <v>2.8466665744781494</v>
       </c>
       <c r="E7" s="1">
-        <v>70.294975280761719</v>
+        <v>5.2491607666015625</v>
       </c>
     </row>
     <row r="8">
@@ -284,16 +425,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>20.380797466937956</v>
+        <v>57.066627874784288</v>
       </c>
       <c r="C8" s="1">
         <v>4723</v>
       </c>
       <c r="D8" s="1">
-        <v>1.7400000095367432</v>
+        <v>1.375</v>
       </c>
       <c r="E8" s="1">
-        <v>35.462589263916016</v>
+        <v>78.46661376953125</v>
       </c>
     </row>
     <row r="9">
@@ -301,16 +442,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>32.047278376572621</v>
+        <v>0</v>
       </c>
       <c r="C9" s="1">
         <v>4723</v>
       </c>
       <c r="D9" s="1">
-        <v>0.85000002384185791</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="E9" s="1">
-        <v>27.24018669128418</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -318,33 +459,29 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>7.5887418317259705</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
         <v>4723</v>
       </c>
-      <c r="D10" s="1">
-        <v>4.2849998474121094</v>
-      </c>
-      <c r="E10" s="1">
-        <v>32.517757415771484</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>26.284929443713143</v>
+        <v>35.773522600541042</v>
       </c>
       <c r="C11" s="1">
         <v>4723</v>
       </c>
       <c r="D11" s="1">
-        <v>3.684999942779541</v>
+        <v>1.9650000333786011</v>
       </c>
       <c r="E11" s="1">
-        <v>96.859962463378906</v>
+        <v>70.294975280761719</v>
       </c>
     </row>
     <row r="12">
@@ -352,16 +489,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>21.167612287823033</v>
+        <v>0</v>
       </c>
       <c r="C12" s="1">
         <v>4723</v>
       </c>
       <c r="D12" s="1">
-        <v>1.4500000476837158</v>
+        <v>2.1766667366027832</v>
       </c>
       <c r="E12" s="1">
-        <v>30.693038940429688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -369,16 +506,16 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>25.771581386954455</v>
+        <v>0</v>
       </c>
       <c r="C13" s="1">
         <v>4723</v>
       </c>
       <c r="D13" s="1">
-        <v>9</v>
+        <v>2.0099999904632568</v>
       </c>
       <c r="E13" s="1">
-        <v>231.94422912597656</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -386,16 +523,16 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>7.1381170796358608</v>
+        <v>0</v>
       </c>
       <c r="C14" s="1">
         <v>4723</v>
       </c>
       <c r="D14" s="1">
-        <v>5.8400001525878906</v>
+        <v>1.9199999570846558</v>
       </c>
       <c r="E14" s="1">
-        <v>41.686603546142578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -403,16 +540,16 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>10.352916163835843</v>
+        <v>0</v>
       </c>
       <c r="C15" s="1">
         <v>4723</v>
       </c>
       <c r="D15" s="1">
-        <v>3.0799999237060547</v>
+        <v>1.8324999809265137</v>
       </c>
       <c r="E15" s="1">
-        <v>31.886980056762695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -420,16 +557,16 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>39.938503641358324</v>
+        <v>0</v>
       </c>
       <c r="C16" s="1">
         <v>4723</v>
       </c>
       <c r="D16" s="1">
-        <v>1.1337499618530273</v>
+        <v>2.7799999713897705</v>
       </c>
       <c r="E16" s="1">
-        <v>45.280277252197266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -437,16 +574,16 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>21.064435758960215</v>
+        <v>0</v>
       </c>
       <c r="C17" s="1">
         <v>4723</v>
       </c>
       <c r="D17" s="1">
-        <v>1.6485714912414551</v>
+        <v>2.2000000476837158</v>
       </c>
       <c r="E17" s="1">
-        <v>34.726226806640625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -454,204 +591,1172 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>11.258825547660328</v>
+        <v>20.380797466937956</v>
       </c>
       <c r="C18" s="1">
         <v>4723</v>
       </c>
       <c r="D18" s="1">
-        <v>0.23000000417232513</v>
+        <v>1.7400000095367432</v>
       </c>
       <c r="E18" s="1">
-        <v>2.5895299911499023</v>
+        <v>35.462589263916016</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B19" s="1">
-        <v>13.003781988992799</v>
+        <v>0</v>
       </c>
       <c r="C19" s="1">
         <v>4723</v>
       </c>
-      <c r="D19" s="1">
-        <v>0.34999999403953552</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4.551323413848877</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>16.457479089037886</v>
+        <v>0</v>
       </c>
       <c r="C20" s="1">
         <v>4723</v>
       </c>
       <c r="D20" s="1">
-        <v>0.40000000596046448</v>
+        <v>1.690000057220459</v>
       </c>
       <c r="E20" s="1">
-        <v>6.5829916000366211</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>8.7861950559533302</v>
+        <v>0</v>
       </c>
       <c r="C21" s="1">
         <v>4723</v>
       </c>
       <c r="D21" s="1">
-        <v>0.56499999761581421</v>
+        <v>1.4500000476837158</v>
       </c>
       <c r="E21" s="1">
-        <v>4.9642000198364258</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>20.343278355853879</v>
+        <v>0</v>
       </c>
       <c r="C22" s="1">
         <v>4723</v>
       </c>
       <c r="D22" s="1">
-        <v>1.3511111736297607</v>
+        <v>1.1100000143051147</v>
       </c>
       <c r="E22" s="1">
-        <v>27.486030578613281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>8.6313793025682113</v>
+        <v>32.047278376572621</v>
       </c>
       <c r="C23" s="1">
         <v>4723</v>
       </c>
       <c r="D23" s="1">
-        <v>4.0584616661071777</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="E23" s="1">
-        <v>35.030120849609375</v>
+        <v>27.24018669128418</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>18.848436411321099</v>
+        <v>0</v>
       </c>
       <c r="C24" s="1">
         <v>4723</v>
       </c>
       <c r="D24" s="1">
-        <v>2.5450000762939453</v>
+        <v>2.7300000190734863</v>
       </c>
       <c r="E24" s="1">
-        <v>47.969272613525391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B25" s="1">
-        <v>45.674628638373122</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
         <v>4723</v>
       </c>
-      <c r="D25" s="1">
-        <v>1.8233332633972168</v>
-      </c>
-      <c r="E25" s="1">
-        <v>83.280067443847656</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B26" s="1">
-        <v>15.668787100091466</v>
+        <v>0</v>
       </c>
       <c r="C26" s="1">
         <v>4723</v>
       </c>
       <c r="D26" s="1">
-        <v>1.2246154546737671</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="E26" s="1">
-        <v>19.188238143920898</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27" s="1">
-        <v>39.989490301458105</v>
+        <v>7.5887418317259705</v>
       </c>
       <c r="C27" s="1">
         <v>4723</v>
       </c>
       <c r="D27" s="1">
-        <v>3.934999942779541</v>
+        <v>4.2849998474121094</v>
       </c>
       <c r="E27" s="1">
-        <v>157.358642578125</v>
+        <v>32.517757415771484</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28" s="1">
-        <v>12.596166011213423</v>
+        <v>0</v>
       </c>
       <c r="C28" s="1">
         <v>4723</v>
       </c>
       <c r="D28" s="1">
-        <v>0.05000000074505806</v>
+        <v>0.87999999523162842</v>
       </c>
       <c r="E28" s="1">
-        <v>0.62980830669403076</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1">
+        <v>26.284929443713143</v>
+      </c>
+      <c r="C29" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D29" s="1">
+        <v>3.684999942779541</v>
+      </c>
+      <c r="E29" s="1">
+        <v>96.859962463378906</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B30" s="1">
+        <v>0</v>
+      </c>
+      <c r="C30" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="1">
+        <v>21.167612287823033</v>
+      </c>
+      <c r="C32" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1.4500000476837158</v>
+      </c>
+      <c r="E32" s="1">
+        <v>30.693038940429688</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="1">
+        <v>25.771581386954455</v>
+      </c>
+      <c r="C34" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9</v>
+      </c>
+      <c r="E34" s="1">
+        <v>231.94422912597656</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="1">
+        <v>7.1381170796358608</v>
+      </c>
+      <c r="C35" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D35" s="1">
+        <v>5.8400001525878906</v>
+      </c>
+      <c r="E35" s="1">
+        <v>41.686603546142578</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="1">
+        <v>10.352916163835843</v>
+      </c>
+      <c r="C36" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D36" s="1">
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="E36" s="1">
+        <v>31.886980056762695</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="B37" s="1">
+        <v>0</v>
+      </c>
+      <c r="C37" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B38" s="1">
+        <v>39.938503641358324</v>
+      </c>
+      <c r="C38" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D38" s="1">
+        <v>1.1337499618530273</v>
+      </c>
+      <c r="E38" s="1">
+        <v>45.280277252197266</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="1">
+        <v>0</v>
+      </c>
+      <c r="C39" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" s="1">
+        <v>21.064435758960215</v>
+      </c>
+      <c r="C40" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1.6485714912414551</v>
+      </c>
+      <c r="E40" s="1">
+        <v>34.726226806640625</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0.31000000238418579</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" s="1">
+        <v>0</v>
+      </c>
+      <c r="C42" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="B43" s="1">
+        <v>0</v>
+      </c>
+      <c r="C43" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="1">
+        <v>11.258825547660328</v>
+      </c>
+      <c r="C44" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0.23000000417232513</v>
+      </c>
+      <c r="E44" s="1">
+        <v>2.5895299911499023</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="1">
+        <v>0</v>
+      </c>
+      <c r="C45" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>40</v>
+      </c>
+      <c r="B46" s="1">
+        <v>13.003781988992799</v>
+      </c>
+      <c r="C46" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0.34999999403953552</v>
+      </c>
+      <c r="E46" s="1">
+        <v>4.551323413848877</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B47" s="1">
+        <v>16.457479089037886</v>
+      </c>
+      <c r="C47" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="E47" s="1">
+        <v>6.5829916000366211</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B48" s="1">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0.38999998569488525</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>43</v>
+      </c>
+      <c r="B49" s="1">
+        <v>0</v>
+      </c>
+      <c r="C49" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0.18000000715255737</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0.37000000476837158</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="1">
+        <v>0</v>
+      </c>
+      <c r="C51" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" s="1">
+        <v>8.7861950559533302</v>
+      </c>
+      <c r="C52" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="E52" s="1">
+        <v>4.9642000198364258</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>47</v>
+      </c>
+      <c r="B54" s="1">
+        <v>20.343278355853879</v>
+      </c>
+      <c r="C54" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D54" s="1">
+        <v>1.3511111736297607</v>
+      </c>
+      <c r="E54" s="1">
+        <v>27.486030578613281</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" s="1">
+        <v>8.6313793025682113</v>
+      </c>
+      <c r="C55" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D55" s="1">
+        <v>4.0584616661071777</v>
+      </c>
+      <c r="E55" s="1">
+        <v>35.030120849609375</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>49</v>
+      </c>
+      <c r="B56" s="1">
+        <v>18.848436411321099</v>
+      </c>
+      <c r="C56" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D56" s="1">
+        <v>2.5450000762939453</v>
+      </c>
+      <c r="E56" s="1">
+        <v>47.969272613525391</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>50</v>
+      </c>
+      <c r="B57" s="1">
+        <v>0</v>
+      </c>
+      <c r="C57" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D57" s="1">
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>9</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0</v>
+      </c>
+      <c r="C58" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>51</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0</v>
+      </c>
+      <c r="C59" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D59" s="1">
+        <v>7.2100000381469727</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0</v>
+      </c>
+      <c r="C60" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6.3449997901916504</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0</v>
+      </c>
+      <c r="C61" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D61" s="1">
+        <v>5.6700000762939453</v>
+      </c>
+      <c r="E61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>9</v>
+      </c>
+      <c r="B62" s="1">
+        <v>0</v>
+      </c>
+      <c r="C62" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="1">
+        <v>45.674628638373122</v>
+      </c>
+      <c r="C63" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.8233332633972168</v>
+      </c>
+      <c r="E63" s="1">
+        <v>83.280067443847656</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" s="1">
+        <v>15.668787100091466</v>
+      </c>
+      <c r="C64" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.2246154546737671</v>
+      </c>
+      <c r="E64" s="1">
+        <v>19.188238143920898</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>56</v>
+      </c>
+      <c r="B65" s="1">
+        <v>0</v>
+      </c>
+      <c r="C65" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="E65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>57</v>
+      </c>
+      <c r="B66" s="1">
+        <v>0</v>
+      </c>
+      <c r="C66" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D66" s="1">
+        <v>0.25999999046325684</v>
+      </c>
+      <c r="E66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="1">
+        <v>0</v>
+      </c>
+      <c r="C67" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D67" s="1">
+        <v>3.3299999237060547</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" s="1">
+        <v>0</v>
+      </c>
+      <c r="C68" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69" s="1">
+        <v>39.989490301458105</v>
+      </c>
+      <c r="C69" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D69" s="1">
+        <v>3.934999942779541</v>
+      </c>
+      <c r="E69" s="1">
+        <v>157.358642578125</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>60</v>
+      </c>
+      <c r="B70" s="1">
+        <v>0</v>
+      </c>
+      <c r="C70" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D70" s="1">
+        <v>3.6700000762939453</v>
+      </c>
+      <c r="E70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71" s="1">
+        <v>0</v>
+      </c>
+      <c r="C71" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D71" s="1">
+        <v>3.5999999046325684</v>
+      </c>
+      <c r="E71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>62</v>
+      </c>
+      <c r="B72" s="1">
+        <v>0</v>
+      </c>
+      <c r="C72" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D72" s="1">
+        <v>3.3199999332427979</v>
+      </c>
+      <c r="E72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>63</v>
+      </c>
+      <c r="B73" s="1">
+        <v>0</v>
+      </c>
+      <c r="C73" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D73" s="1">
+        <v>3.6400001049041748</v>
+      </c>
+      <c r="E73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="1">
+        <v>0</v>
+      </c>
+      <c r="C74" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>64</v>
+      </c>
+      <c r="B75" s="1">
+        <v>12.596166011213423</v>
+      </c>
+      <c r="C75" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D75" s="1">
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="E75" s="1">
+        <v>0.62980830669403076</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>65</v>
+      </c>
+      <c r="B76" s="1">
+        <v>0</v>
+      </c>
+      <c r="C76" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D76" s="1">
+        <v>0.039999999105930328</v>
+      </c>
+      <c r="E76" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>66</v>
+      </c>
+      <c r="B77" s="1">
+        <v>0</v>
+      </c>
+      <c r="C77" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D77" s="1">
+        <v>0.88999998569488525</v>
+      </c>
+      <c r="E77" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1">
+        <v>0</v>
+      </c>
+      <c r="C78" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>67</v>
+      </c>
+      <c r="B79" s="1">
         <v>22.535818373730393</v>
       </c>
-      <c r="C29" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D29" s="1">
-        <v>0</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0</v>
-      </c>
+      <c r="C79" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D79" s="1">
+        <v>0</v>
+      </c>
+      <c r="E79" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>68</v>
+      </c>
+      <c r="B80" s="1">
+        <v>0</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D80" s="1">
+        <v>3.1520001888275146</v>
+      </c>
+      <c r="E80" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="1">
+        <v>0</v>
+      </c>
+      <c r="C81" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D81" s="1">
+        <v>1.0900000333786011</v>
+      </c>
+      <c r="E81" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="1">
+        <v>0</v>
+      </c>
+      <c r="C82" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D82" s="1">
+        <v>0.93999999761581421</v>
+      </c>
+      <c r="E82" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1">
+        <v>0</v>
+      </c>
+      <c r="C83" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="1">
+        <v>0</v>
+      </c>
+      <c r="C84" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0.43666666746139526</v>
+      </c>
+      <c r="E84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" s="1">
+        <v>0</v>
+      </c>
+      <c r="C85" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D85" s="1">
+        <v>0</v>
+      </c>
+      <c r="E85" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>73</v>
+      </c>
+      <c r="B86" s="1">
+        <v>0</v>
+      </c>
+      <c r="C86" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0.43999999761581421</v>
+      </c>
+      <c r="E86" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>74</v>
+      </c>
+      <c r="B87" s="1">
+        <v>0</v>
+      </c>
+      <c r="C87" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D87" s="1">
+        <v>0.4050000011920929</v>
+      </c>
+      <c r="E87" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>75</v>
+      </c>
+      <c r="B88" s="1">
+        <v>0</v>
+      </c>
+      <c r="C88" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1.8069999217987061</v>
+      </c>
+      <c r="E88" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>9</v>
+      </c>
+      <c r="B89" s="1">
+        <v>0</v>
+      </c>
+      <c r="C89" s="1">
+        <v>4723</v>
+      </c>
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
+++ b/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
@@ -13,234 +13,237 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>bien</t>
   </si>
   <si>
+    <t>Harina de maiz</t>
+  </si>
+  <si>
     <t>Arroz, harina de arroz</t>
   </si>
   <si>
+    <t>Aceite</t>
+  </si>
+  <si>
+    <t>Azucar</t>
+  </si>
+  <si>
+    <t>Queso blanco</t>
+  </si>
+  <si>
+    <t>Yuca</t>
+  </si>
+  <si>
+    <t>Pastas alimenticias</t>
+  </si>
+  <si>
+    <t>Carne de res (bistec, carne molida, carne para esmechar)</t>
+  </si>
+  <si>
+    <t>Maiz en granos</t>
+  </si>
+  <si>
+    <t>Lentejas</t>
+  </si>
+  <si>
+    <t>Cambur</t>
+  </si>
+  <si>
+    <t>Margarina/Mantequilla</t>
+  </si>
+  <si>
+    <t>Carne de pollo</t>
+  </si>
+  <si>
+    <t>Frijoles</t>
+  </si>
+  <si>
+    <t>Platanos</t>
+  </si>
+  <si>
+    <t>Leche en polvo, completa o descremada</t>
+  </si>
+  <si>
+    <t>Mayonesa</t>
+  </si>
+  <si>
+    <t>Huevos (unidades)</t>
+  </si>
+  <si>
+    <t>Caraotas</t>
+  </si>
+  <si>
+    <t>Pescado fresco</t>
+  </si>
+  <si>
+    <t>Papas</t>
+  </si>
+  <si>
+    <t>Cebolla</t>
+  </si>
+  <si>
+    <t>Pan de trigo</t>
+  </si>
+  <si>
+    <t>Cebollin, ajoporro, cilantro y similares</t>
+  </si>
+  <si>
+    <t>Aji dulce, pimenton, pimiento</t>
+  </si>
+  <si>
+    <t>Tomates</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Garbanzo</t>
+  </si>
+  <si>
+    <t>Lechosa</t>
+  </si>
+  <si>
+    <t>Otras bebidas no alcoholicas</t>
+  </si>
+  <si>
+    <t>Zanahorias</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Otras salsas</t>
+  </si>
+  <si>
+    <t>Edulcorantes</t>
+  </si>
+  <si>
+    <t>Chorizo, jamon, mortadela y otros embutidos</t>
+  </si>
+  <si>
+    <t>Miel</t>
+  </si>
+  <si>
+    <t>Papelon</t>
+  </si>
+  <si>
+    <t>Bebida achocolatada</t>
+  </si>
+  <si>
+    <t>Sardinas frescas/congeladas</t>
+  </si>
+  <si>
+    <t>Concentrados (cubitos, sopas de sobre)</t>
+  </si>
+  <si>
     <t>Avena, avena en hojuelas, harina de avena</t>
   </si>
   <si>
+    <t>Pescado seco/salado</t>
+  </si>
+  <si>
+    <t>Suero, natilla, nata</t>
+  </si>
+  <si>
+    <t>Visceras (higado, riñonada, corazon, asadura, morcillas)</t>
+  </si>
+  <si>
     <t>Galletas, dulces, saladas, integrales</t>
   </si>
   <si>
-    <t>Harina de maiz</t>
-  </si>
-  <si>
-    <t>Maiz en granos</t>
-  </si>
-  <si>
-    <t>Pan de trigo</t>
-  </si>
-  <si>
-    <t>Pastas alimenticias</t>
+    <t>Jugos</t>
+  </si>
+  <si>
+    <t>Casabe</t>
+  </si>
+  <si>
+    <t>Leche liquida, completa o descremada</t>
+  </si>
+  <si>
+    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
+  </si>
+  <si>
+    <t>Guayaba</t>
+  </si>
+  <si>
+    <t>Chuleta de cerdo ahumada</t>
+  </si>
+  <si>
+    <t>Carne enlatada</t>
+  </si>
+  <si>
+    <t>Nueces</t>
+  </si>
+  <si>
+    <t>Mangos</t>
+  </si>
+  <si>
+    <t>Melaza</t>
+  </si>
+  <si>
+    <t>Hueso de res, pata de res, pata de pollo</t>
+  </si>
+  <si>
+    <t>Auyama</t>
+  </si>
+  <si>
+    <t>Merey</t>
+  </si>
+  <si>
+    <t>Aguacate</t>
+  </si>
+  <si>
+    <t>Bebidas alcoholicas</t>
+  </si>
+  <si>
+    <t>Queso amarillo</t>
+  </si>
+  <si>
+    <t>Salsa de tomate</t>
+  </si>
+  <si>
+    <t>Gaseosas/refrescos</t>
+  </si>
+  <si>
+    <t>Berenjena</t>
+  </si>
+  <si>
+    <t>Ocumo</t>
+  </si>
+  <si>
+    <t>Agua embotellada</t>
+  </si>
+  <si>
+    <t>Queso requeson, ricota</t>
+  </si>
+  <si>
+    <t>Pescado enlatado</t>
   </si>
   <si>
     <t>Fororo</t>
   </si>
   <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Atun fresco/congelado</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
     <t>Otro (especifique)</t>
   </si>
   <si>
-    <t>Carne de res (bistec, carne molida, carne para esmechar)</t>
-  </si>
-  <si>
-    <t>Visceras (higado, riñonada, corazon, asadura, morcillas)</t>
-  </si>
-  <si>
-    <t>Chuleta de cerdo ahumada</t>
-  </si>
-  <si>
-    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
-  </si>
-  <si>
-    <t>Hueso de res, pata de res, pata de pollo</t>
-  </si>
-  <si>
-    <t>Chorizo, jamon, mortadela y otros embutidos</t>
-  </si>
-  <si>
-    <t>Carne enlatada</t>
-  </si>
-  <si>
-    <t>Carne de pollo</t>
-  </si>
-  <si>
-    <t>Pescado enlatado</t>
-  </si>
-  <si>
-    <t>Sardinas frescas/congeladas</t>
-  </si>
-  <si>
-    <t>Atun fresco/congelado</t>
-  </si>
-  <si>
-    <t>Pescado fresco</t>
-  </si>
-  <si>
-    <t>Pescado seco/salado</t>
-  </si>
-  <si>
-    <t>Leche liquida, completa o descremada</t>
-  </si>
-  <si>
-    <t>Leche en polvo, completa o descremada</t>
-  </si>
-  <si>
-    <t>Queso requeson, ricota</t>
-  </si>
-  <si>
-    <t>Queso blanco</t>
-  </si>
-  <si>
-    <t>Queso amarillo</t>
-  </si>
-  <si>
-    <t>Suero, natilla, nata</t>
-  </si>
-  <si>
-    <t>Huevos (unidades)</t>
-  </si>
-  <si>
-    <t>Aceite</t>
-  </si>
-  <si>
-    <t>Margarina/Mantequilla</t>
-  </si>
-  <si>
-    <t>Mayonesa</t>
-  </si>
-  <si>
-    <t>Cambur</t>
-  </si>
-  <si>
-    <t>Mangos</t>
-  </si>
-  <si>
-    <t>Platanos</t>
-  </si>
-  <si>
-    <t>Lechosa</t>
-  </si>
-  <si>
-    <t>Guayaba</t>
-  </si>
-  <si>
-    <t>Tomates</t>
-  </si>
-  <si>
-    <t>Aguacate</t>
-  </si>
-  <si>
-    <t>Aji dulce, pimenton, pimiento</t>
-  </si>
-  <si>
-    <t>Cebolla</t>
-  </si>
-  <si>
-    <t>Auyama</t>
-  </si>
-  <si>
-    <t>Lechuga</t>
-  </si>
-  <si>
-    <t>Berenjena</t>
-  </si>
-  <si>
-    <t>Zanahorias</t>
-  </si>
-  <si>
-    <t>Cebollin, ajoporro, cilantro y similares</t>
-  </si>
-  <si>
-    <t>Caraotas</t>
-  </si>
-  <si>
-    <t>Frijoles</t>
-  </si>
-  <si>
-    <t>Lentejas</t>
-  </si>
-  <si>
-    <t>Garbanzo</t>
-  </si>
-  <si>
-    <t>Nueces</t>
-  </si>
-  <si>
-    <t>Mani</t>
-  </si>
-  <si>
-    <t>Merey</t>
-  </si>
-  <si>
-    <t>Yuca</t>
-  </si>
-  <si>
-    <t>Papas</t>
-  </si>
-  <si>
-    <t>Ocumo</t>
-  </si>
-  <si>
-    <t>Apio</t>
-  </si>
-  <si>
-    <t>Casabe</t>
-  </si>
-  <si>
-    <t>Azucar</t>
-  </si>
-  <si>
-    <t>Papelon</t>
-  </si>
-  <si>
-    <t>Edulcorantes</t>
-  </si>
-  <si>
-    <t>Miel</t>
-  </si>
-  <si>
-    <t>Melaza</t>
-  </si>
-  <si>
-    <t>Cafe</t>
-  </si>
-  <si>
-    <t>Te</t>
-  </si>
-  <si>
-    <t>Bebida achocolatada</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>Concentrados (cubitos, sopas de sobre)</t>
-  </si>
-  <si>
-    <t>Salsa de tomate</t>
-  </si>
-  <si>
-    <t>Otras salsas</t>
-  </si>
-  <si>
-    <t>Jugos</t>
-  </si>
-  <si>
-    <t>Agua embotellada</t>
-  </si>
-  <si>
-    <t>Gaseosas/refrescos</t>
-  </si>
-  <si>
-    <t>Otras bebidas no alcoholicas</t>
-  </si>
-  <si>
-    <t>Bebidas alcoholicas</t>
+    <t>cantidad_h</t>
   </si>
   <si>
     <t>cantidad_ajustada</t>
@@ -298,7 +301,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:F89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -317,22 +320,28 @@
       <c r="E1" t="s">
         <v>79</v>
       </c>
+      <c r="F1" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>114.1391790891991</v>
+        <v>96.219112295279587</v>
       </c>
       <c r="C2" s="1">
-        <v>4723</v>
+        <v>125.63386194155223</v>
       </c>
       <c r="D2" s="1">
-        <v>3.4500000476837158</v>
+        <v>4723</v>
       </c>
       <c r="E2" s="1">
-        <v>393.78018188476563</v>
+        <v>3.8299999237060547</v>
+      </c>
+      <c r="F2" s="1">
+        <v>481.17767333984375</v>
       </c>
     </row>
     <row r="3">
@@ -340,16 +349,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>0</v>
+        <v>87.41568819143346</v>
       </c>
       <c r="C3" s="1">
-        <v>4723</v>
+        <v>114.1391790891991</v>
       </c>
       <c r="D3" s="1">
-        <v>4.125</v>
+        <v>4723</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>3.4500000476837158</v>
+      </c>
+      <c r="F3" s="1">
+        <v>393.78018188476563</v>
       </c>
     </row>
     <row r="4">
@@ -357,16 +369,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>0</v>
+        <v>19.737660979583509</v>
       </c>
       <c r="C4" s="1">
-        <v>4723</v>
+        <v>25.771581386954455</v>
       </c>
       <c r="D4" s="1">
-        <v>4.5275001525878906</v>
+        <v>4723</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="1">
+        <v>231.94422912597656</v>
       </c>
     </row>
     <row r="5">
@@ -374,16 +389,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>125.63386194155223</v>
+        <v>30.626721190113955</v>
       </c>
       <c r="C5" s="1">
-        <v>4723</v>
+        <v>39.989490301458105</v>
       </c>
       <c r="D5" s="1">
-        <v>3.8299999237060547</v>
+        <v>4723</v>
       </c>
       <c r="E5" s="1">
-        <v>481.17767333984375</v>
+        <v>3.934999942779541</v>
+      </c>
+      <c r="F5" s="1">
+        <v>157.358642578125</v>
       </c>
     </row>
     <row r="6">
@@ -391,16 +409,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>18.338965379810677</v>
+        <v>20.130819360659128</v>
       </c>
       <c r="C6" s="1">
-        <v>4723</v>
+        <v>26.284929443713143</v>
       </c>
       <c r="D6" s="1">
-        <v>3.5499999523162842</v>
+        <v>4723</v>
       </c>
       <c r="E6" s="1">
-        <v>65.103324890136719</v>
+        <v>3.684999942779541</v>
+      </c>
+      <c r="F6" s="1">
+        <v>96.859962463378906</v>
       </c>
     </row>
     <row r="7">
@@ -408,16 +429,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.8439675338586812</v>
+        <v>34.980793927499811</v>
       </c>
       <c r="C7" s="1">
-        <v>4723</v>
+        <v>45.674628638373122</v>
       </c>
       <c r="D7" s="1">
-        <v>2.8466665744781494</v>
+        <v>4723</v>
       </c>
       <c r="E7" s="1">
-        <v>5.2491607666015625</v>
+        <v>1.8233332633972168</v>
+      </c>
+      <c r="F7" s="1">
+        <v>83.280067443847656</v>
       </c>
     </row>
     <row r="8">
@@ -425,15 +449,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
+        <v>43.705575829917237</v>
+      </c>
+      <c r="C8" s="1">
         <v>57.066627874784288</v>
       </c>
-      <c r="C8" s="1">
-        <v>4723</v>
-      </c>
       <c r="D8" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E8" s="1">
         <v>1.375</v>
       </c>
-      <c r="E8" s="1">
+      <c r="F8" s="1">
         <v>78.46661376953125</v>
       </c>
     </row>
@@ -442,16 +469,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>0</v>
+        <v>27.397841132497373</v>
       </c>
       <c r="C9" s="1">
-        <v>4723</v>
+        <v>35.773522600541042</v>
       </c>
       <c r="D9" s="1">
-        <v>3.7999999523162842</v>
+        <v>4723</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>1.9650000333786011</v>
+      </c>
+      <c r="F9" s="1">
+        <v>70.294975280761719</v>
       </c>
     </row>
     <row r="10">
@@ -459,29 +489,39 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>0</v>
+        <v>14.045249814783242</v>
       </c>
       <c r="C10" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>18.338965379810677</v>
+      </c>
+      <c r="D10" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E10" s="1">
+        <v>3.5499999523162842</v>
+      </c>
+      <c r="F10" s="1">
+        <v>65.103324890136719</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>35.773522600541042</v>
+        <v>14.435437959658501</v>
       </c>
       <c r="C11" s="1">
-        <v>4723</v>
+        <v>18.848436411321099</v>
       </c>
       <c r="D11" s="1">
-        <v>1.9650000333786011</v>
+        <v>4723</v>
       </c>
       <c r="E11" s="1">
-        <v>70.294975280761719</v>
+        <v>2.5450000762939453</v>
+      </c>
+      <c r="F11" s="1">
+        <v>47.969272613525391</v>
       </c>
     </row>
     <row r="12">
@@ -489,16 +529,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>0</v>
+        <v>30.587672092842393</v>
       </c>
       <c r="C12" s="1">
-        <v>4723</v>
+        <v>39.938503641358324</v>
       </c>
       <c r="D12" s="1">
-        <v>2.1766667366027832</v>
+        <v>4723</v>
       </c>
       <c r="E12" s="1">
-        <v>0</v>
+        <v>1.1337499618530273</v>
+      </c>
+      <c r="F12" s="1">
+        <v>45.280277252197266</v>
       </c>
     </row>
     <row r="13">
@@ -506,16 +549,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>0</v>
+        <v>5.4668644106340132</v>
       </c>
       <c r="C13" s="1">
-        <v>4723</v>
+        <v>7.1381170796358608</v>
       </c>
       <c r="D13" s="1">
-        <v>2.0099999904632568</v>
+        <v>4723</v>
       </c>
       <c r="E13" s="1">
-        <v>0</v>
+        <v>5.8400001525878906</v>
+      </c>
+      <c r="F13" s="1">
+        <v>41.686603546142578</v>
       </c>
     </row>
     <row r="14">
@@ -523,16 +569,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>0</v>
+        <v>15.609026189529867</v>
       </c>
       <c r="C14" s="1">
-        <v>4723</v>
+        <v>20.380797466937956</v>
       </c>
       <c r="D14" s="1">
-        <v>1.9199999570846558</v>
+        <v>4723</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>1.7400000095367432</v>
+      </c>
+      <c r="F14" s="1">
+        <v>35.462589263916016</v>
       </c>
     </row>
     <row r="15">
@@ -540,16 +589,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>0</v>
+        <v>6.6105080440391202</v>
       </c>
       <c r="C15" s="1">
-        <v>4723</v>
+        <v>8.6313793025682113</v>
       </c>
       <c r="D15" s="1">
-        <v>1.8324999809265137</v>
+        <v>4723</v>
       </c>
       <c r="E15" s="1">
-        <v>0</v>
+        <v>4.0584616661071777</v>
+      </c>
+      <c r="F15" s="1">
+        <v>35.030120849609375</v>
       </c>
     </row>
     <row r="16">
@@ -557,16 +609,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>0</v>
+        <v>16.13260369095892</v>
       </c>
       <c r="C16" s="1">
-        <v>4723</v>
+        <v>21.064435758960215</v>
       </c>
       <c r="D16" s="1">
-        <v>2.7799999713897705</v>
+        <v>4723</v>
       </c>
       <c r="E16" s="1">
-        <v>0</v>
+        <v>1.6485714912414551</v>
+      </c>
+      <c r="F16" s="1">
+        <v>34.726226806640625</v>
       </c>
     </row>
     <row r="17">
@@ -574,16 +629,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>0</v>
+        <v>5.8119840669399752</v>
       </c>
       <c r="C17" s="1">
-        <v>4723</v>
+        <v>7.5887418317259705</v>
       </c>
       <c r="D17" s="1">
-        <v>2.2000000476837158</v>
+        <v>4723</v>
       </c>
       <c r="E17" s="1">
-        <v>0</v>
+        <v>4.2849998474121094</v>
+      </c>
+      <c r="F17" s="1">
+        <v>32.517757415771484</v>
       </c>
     </row>
     <row r="18">
@@ -591,1142 +649,1352 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>20.380797466937956</v>
+        <v>7.9289799116941522</v>
       </c>
       <c r="C18" s="1">
-        <v>4723</v>
+        <v>10.352916163835843</v>
       </c>
       <c r="D18" s="1">
-        <v>1.7400000095367432</v>
+        <v>4723</v>
       </c>
       <c r="E18" s="1">
-        <v>35.462589263916016</v>
+        <v>3.0799999237060547</v>
+      </c>
+      <c r="F18" s="1">
+        <v>31.886980056762695</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>0</v>
+        <v>16.211623967817065</v>
       </c>
       <c r="C19" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>21.167612287823033</v>
+      </c>
+      <c r="D19" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.4500000476837158</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30.693038940429688</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>0</v>
+        <v>15.580291450212952</v>
       </c>
       <c r="C20" s="1">
-        <v>4723</v>
+        <v>20.343278355853879</v>
       </c>
       <c r="D20" s="1">
-        <v>1.690000057220459</v>
+        <v>4723</v>
       </c>
       <c r="E20" s="1">
-        <v>0</v>
+        <v>1.3511111736297607</v>
+      </c>
+      <c r="F20" s="1">
+        <v>27.486030578613281</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>0</v>
+        <v>24.544025287470674</v>
       </c>
       <c r="C21" s="1">
-        <v>4723</v>
+        <v>32.047278376572621</v>
       </c>
       <c r="D21" s="1">
-        <v>1.4500000476837158</v>
+        <v>4723</v>
       </c>
       <c r="E21" s="1">
-        <v>0</v>
+        <v>0.85000002384185791</v>
+      </c>
+      <c r="F21" s="1">
+        <v>27.24018669128418</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>12.000242315458337</v>
       </c>
       <c r="C22" s="1">
-        <v>4723</v>
+        <v>15.668787100091466</v>
       </c>
       <c r="D22" s="1">
-        <v>1.1100000143051147</v>
+        <v>4723</v>
       </c>
       <c r="E22" s="1">
-        <v>0</v>
+        <v>1.2246154546737671</v>
+      </c>
+      <c r="F22" s="1">
+        <v>19.188238143920898</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>32.047278376572621</v>
+        <v>12.604277188258481</v>
       </c>
       <c r="C23" s="1">
-        <v>4723</v>
+        <v>16.457479089037886</v>
       </c>
       <c r="D23" s="1">
-        <v>0.85000002384185791</v>
+        <v>4723</v>
       </c>
       <c r="E23" s="1">
-        <v>27.24018669128418</v>
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="F23" s="1">
+        <v>6.5829916000366211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>0</v>
+        <v>1.412237991399238</v>
       </c>
       <c r="C24" s="1">
-        <v>4723</v>
+        <v>1.8439675338586812</v>
       </c>
       <c r="D24" s="1">
-        <v>2.7300000190734863</v>
+        <v>4723</v>
       </c>
       <c r="E24" s="1">
-        <v>0</v>
+        <v>2.8466665744781494</v>
+      </c>
+      <c r="F24" s="1">
+        <v>5.2491607666015625</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>0</v>
+        <v>6.7290766949424441</v>
       </c>
       <c r="C25" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+        <v>8.7861950559533302</v>
+      </c>
+      <c r="D25" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.56499999761581421</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4.9642000198364258</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>0</v>
+        <v>9.9591967984828909</v>
       </c>
       <c r="C26" s="1">
-        <v>4723</v>
+        <v>13.003781988992799</v>
       </c>
       <c r="D26" s="1">
-        <v>0.44499999284744263</v>
+        <v>4723</v>
       </c>
       <c r="E26" s="1">
-        <v>0</v>
+        <v>0.34999999403953552</v>
+      </c>
+      <c r="F26" s="1">
+        <v>4.551323413848877</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>7.5887418317259705</v>
+        <v>8.6227883585877976</v>
       </c>
       <c r="C27" s="1">
-        <v>4723</v>
+        <v>11.258825547660328</v>
       </c>
       <c r="D27" s="1">
-        <v>4.2849998474121094</v>
+        <v>4723</v>
       </c>
       <c r="E27" s="1">
-        <v>32.517757415771484</v>
+        <v>0.23000000417232513</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2.5895299911499023</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>0</v>
+        <v>9.6470163293039288</v>
       </c>
       <c r="C28" s="1">
-        <v>4723</v>
+        <v>12.596166011213423</v>
       </c>
       <c r="D28" s="1">
-        <v>0.87999999523162842</v>
+        <v>4723</v>
       </c>
       <c r="E28" s="1">
-        <v>0</v>
+        <v>0.05000000074505806</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.62980830669403076</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>26.284929443713143</v>
+        <v>0</v>
       </c>
       <c r="C29" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>3.684999942779541</v>
+        <v>4723</v>
       </c>
       <c r="E29" s="1">
-        <v>96.859962463378906</v>
+        <v>2.9000000953674316</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>2.9300000667572021</v>
+        <v>4723</v>
       </c>
       <c r="E30" s="1">
+        <v>0.31000000238418579</v>
+      </c>
+      <c r="F30" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B31" s="1">
         <v>0</v>
       </c>
       <c r="C31" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>1.75</v>
+        <v>4723</v>
       </c>
       <c r="E31" s="1">
+        <v>0.4050000011920929</v>
+      </c>
+      <c r="F31" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B32" s="1">
-        <v>21.167612287823033</v>
+        <v>0</v>
       </c>
       <c r="C32" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>1.4500000476837158</v>
+        <v>4723</v>
       </c>
       <c r="E32" s="1">
-        <v>30.693038940429688</v>
+        <v>0.4699999988079071</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1">
         <v>0</v>
       </c>
       <c r="C33" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0.18000000715255737</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B34" s="1">
-        <v>25.771581386954455</v>
+        <v>0</v>
       </c>
       <c r="C34" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>9</v>
+        <v>4723</v>
       </c>
       <c r="E34" s="1">
-        <v>231.94422912597656</v>
+        <v>0.25999999046325684</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B35" s="1">
-        <v>7.1381170796358608</v>
+        <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>5.8400001525878906</v>
+        <v>4723</v>
       </c>
       <c r="E35" s="1">
-        <v>41.686603546142578</v>
+        <v>0.039999999105930328</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B36" s="1">
-        <v>10.352916163835843</v>
+        <v>0</v>
       </c>
       <c r="C36" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>3.0799999237060547</v>
+        <v>4723</v>
       </c>
       <c r="E36" s="1">
-        <v>31.886980056762695</v>
+        <v>0.93999999761581421</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="B37" s="1">
         <v>0</v>
       </c>
       <c r="C37" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E37" s="1">
+        <v>3.5999999046325684</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" s="1">
-        <v>39.938503641358324</v>
+        <v>0</v>
       </c>
       <c r="C38" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>1.1337499618530273</v>
+        <v>4723</v>
       </c>
       <c r="E38" s="1">
-        <v>45.280277252197266</v>
+        <v>2.7799999713897705</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" s="1">
         <v>0</v>
       </c>
       <c r="C39" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>0.79000002145767212</v>
+        <v>4723</v>
       </c>
       <c r="E39" s="1">
+        <v>3.3199999332427979</v>
+      </c>
+      <c r="F39" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B40" s="1">
-        <v>21.064435758960215</v>
+        <v>0</v>
       </c>
       <c r="C40" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>1.6485714912414551</v>
+        <v>4723</v>
       </c>
       <c r="E40" s="1">
-        <v>34.726226806640625</v>
+        <v>3.6700000762939453</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B41" s="1">
         <v>0</v>
       </c>
       <c r="C41" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>0.31000000238418579</v>
+        <v>4723</v>
       </c>
       <c r="E41" s="1">
+        <v>0.88999998569488525</v>
+      </c>
+      <c r="F41" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B42" s="1">
         <v>0</v>
       </c>
       <c r="C42" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>0.70999997854232788</v>
+        <v>4723</v>
       </c>
       <c r="E42" s="1">
+        <v>1.4500000476837158</v>
+      </c>
+      <c r="F42" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="B43" s="1">
         <v>0</v>
       </c>
       <c r="C43" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E43" s="1">
+        <v>3.1520001888275146</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B44" s="1">
-        <v>11.258825547660328</v>
+        <v>0</v>
       </c>
       <c r="C44" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>0.23000000417232513</v>
+        <v>4723</v>
       </c>
       <c r="E44" s="1">
-        <v>2.5895299911499023</v>
+        <v>4.125</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B45" s="1">
         <v>0</v>
       </c>
       <c r="C45" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>2</v>
+        <v>4723</v>
       </c>
       <c r="E45" s="1">
+        <v>2.7300000190734863</v>
+      </c>
+      <c r="F45" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>13.003781988992799</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>0.34999999403953552</v>
+        <v>4723</v>
       </c>
       <c r="E46" s="1">
-        <v>4.551323413848877</v>
+        <v>1.75</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B47" s="1">
-        <v>16.457479089037886</v>
+        <v>0</v>
       </c>
       <c r="C47" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>0.40000000596046448</v>
+        <v>4723</v>
       </c>
       <c r="E47" s="1">
-        <v>6.5829916000366211</v>
+        <v>2.1766667366027832</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48" s="1">
         <v>0</v>
       </c>
       <c r="C48" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>0.38999998569488525</v>
+        <v>4723</v>
       </c>
       <c r="E48" s="1">
+        <v>4.5275001525878906</v>
+      </c>
+      <c r="F48" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B49" s="1">
         <v>0</v>
       </c>
       <c r="C49" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>0.18000000715255737</v>
+        <v>4723</v>
       </c>
       <c r="E49" s="1">
+        <v>0.43666666746139526</v>
+      </c>
+      <c r="F49" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B50" s="1">
         <v>0</v>
       </c>
       <c r="C50" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>0.37000000476837158</v>
+        <v>4723</v>
       </c>
       <c r="E50" s="1">
+        <v>3.3299999237060547</v>
+      </c>
+      <c r="F50" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B51" s="1">
         <v>0</v>
       </c>
       <c r="C51" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>0.4699999988079071</v>
+        <v>4723</v>
       </c>
       <c r="E51" s="1">
+        <v>0.44499999284744263</v>
+      </c>
+      <c r="F51" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B52" s="1">
-        <v>8.7861950559533302</v>
+        <v>0</v>
       </c>
       <c r="C52" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>0.56499999761581421</v>
+        <v>4723</v>
       </c>
       <c r="E52" s="1">
-        <v>4.9642000198364258</v>
+        <v>1.9199999570846558</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="B53" s="1">
         <v>0</v>
       </c>
       <c r="C53" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0.70999997854232788</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B54" s="1">
-        <v>20.343278355853879</v>
+        <v>0</v>
       </c>
       <c r="C54" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>1.3511111736297607</v>
+        <v>4723</v>
       </c>
       <c r="E54" s="1">
-        <v>27.486030578613281</v>
+        <v>2.0099999904632568</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1">
-        <v>8.6313793025682113</v>
+        <v>0</v>
       </c>
       <c r="C55" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>4.0584616661071777</v>
+        <v>4723</v>
       </c>
       <c r="E55" s="1">
-        <v>35.030120849609375</v>
+        <v>2.2000000476837158</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1">
-        <v>18.848436411321099</v>
+        <v>0</v>
       </c>
       <c r="C56" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>2.5450000762939453</v>
+        <v>4723</v>
       </c>
       <c r="E56" s="1">
-        <v>47.969272613525391</v>
+        <v>7.2100000381469727</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B57" s="1">
         <v>0</v>
       </c>
       <c r="C57" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>2.9000000953674316</v>
+        <v>4723</v>
       </c>
       <c r="E57" s="1">
+        <v>0.79000002145767212</v>
+      </c>
+      <c r="F57" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="B58" s="1">
         <v>0</v>
       </c>
       <c r="C58" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E58" s="1">
+        <v>3.6400001049041748</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B59" s="1">
         <v>0</v>
       </c>
       <c r="C59" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>7.2100000381469727</v>
+        <v>4723</v>
       </c>
       <c r="E59" s="1">
+        <v>1.8324999809265137</v>
+      </c>
+      <c r="F59" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B60" s="1">
         <v>0</v>
       </c>
       <c r="C60" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>6.3449997901916504</v>
+        <v>4723</v>
       </c>
       <c r="E60" s="1">
+        <v>0.38999998569488525</v>
+      </c>
+      <c r="F60" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="B61" s="1">
         <v>0</v>
       </c>
       <c r="C61" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D61" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E61" s="1">
         <v>5.6700000762939453</v>
       </c>
-      <c r="E61" s="1">
+      <c r="F61" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>61</v>
       </c>
       <c r="B62" s="1">
         <v>0</v>
       </c>
       <c r="C62" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D62" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E62" s="1">
+        <v>2</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B63" s="1">
-        <v>45.674628638373122</v>
+        <v>0</v>
       </c>
       <c r="C63" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>1.8233332633972168</v>
+        <v>4723</v>
       </c>
       <c r="E63" s="1">
-        <v>83.280067443847656</v>
+        <v>1.8069999217987061</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B64" s="1">
-        <v>15.668787100091466</v>
+        <v>0</v>
       </c>
       <c r="C64" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>1.2246154546737671</v>
+        <v>4723</v>
       </c>
       <c r="E64" s="1">
-        <v>19.188238143920898</v>
+        <v>2.9300000667572021</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B65" s="1">
         <v>0</v>
       </c>
       <c r="C65" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>1.2000000476837158</v>
+        <v>4723</v>
       </c>
       <c r="E65" s="1">
+        <v>1.0900000333786011</v>
+      </c>
+      <c r="F65" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B66" s="1">
         <v>0</v>
       </c>
       <c r="C66" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>0.25999999046325684</v>
+        <v>4723</v>
       </c>
       <c r="E66" s="1">
+        <v>0.43999999761581421</v>
+      </c>
+      <c r="F66" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B67" s="1">
         <v>0</v>
       </c>
       <c r="C67" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>3.3299999237060547</v>
+        <v>4723</v>
       </c>
       <c r="E67" s="1">
+        <v>0.37000000476837158</v>
+      </c>
+      <c r="F67" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>9</v>
+        <v>67</v>
       </c>
       <c r="B68" s="1">
         <v>0</v>
       </c>
       <c r="C68" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D68" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E68" s="1">
+        <v>1.2000000476837158</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1">
-        <v>39.989490301458105</v>
+        <v>0</v>
       </c>
       <c r="C69" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>3.934999942779541</v>
+        <v>4723</v>
       </c>
       <c r="E69" s="1">
-        <v>157.358642578125</v>
+        <v>0</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B70" s="1">
         <v>0</v>
       </c>
       <c r="C70" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>3.6700000762939453</v>
+        <v>4723</v>
       </c>
       <c r="E70" s="1">
+        <v>0.87999999523162842</v>
+      </c>
+      <c r="F70" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B71" s="1">
         <v>0</v>
       </c>
       <c r="C71" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>3.5999999046325684</v>
+        <v>4723</v>
       </c>
       <c r="E71" s="1">
+        <v>1.690000057220459</v>
+      </c>
+      <c r="F71" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B72" s="1">
         <v>0</v>
       </c>
       <c r="C72" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>3.3199999332427979</v>
+        <v>4723</v>
       </c>
       <c r="E72" s="1">
+        <v>3.7999999523162842</v>
+      </c>
+      <c r="F72" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>0</v>
+        <v>17.259490476834831</v>
       </c>
       <c r="C73" s="1">
-        <v>4723</v>
+        <v>22.535818373730393</v>
       </c>
       <c r="D73" s="1">
-        <v>3.6400001049041748</v>
+        <v>4723</v>
       </c>
       <c r="E73" s="1">
+        <v>0</v>
+      </c>
+      <c r="F73" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="B74" s="1">
         <v>0</v>
       </c>
       <c r="C74" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D74" s="1">
+        <v>4723</v>
+      </c>
+      <c r="E74" s="1">
+        <v>1.1100000143051147</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B75" s="1">
-        <v>12.596166011213423</v>
+        <v>0</v>
       </c>
       <c r="C75" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>0.05000000074505806</v>
+        <v>4723</v>
       </c>
       <c r="E75" s="1">
-        <v>0.62980830669403076</v>
+        <v>6.3449997901916504</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
       </c>
       <c r="C76" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>0.039999999105930328</v>
-      </c>
-      <c r="E76" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E76" s="1"/>
+      <c r="F76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
       </c>
       <c r="C77" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>0.88999998569488525</v>
-      </c>
-      <c r="E77" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E77" s="1"/>
+      <c r="F77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
       </c>
       <c r="C78" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D78" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D78" s="1">
+        <v>4723</v>
+      </c>
       <c r="E78" s="1"/>
+      <c r="F78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B79" s="1">
-        <v>22.535818373730393</v>
+        <v>0</v>
       </c>
       <c r="C79" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>0</v>
-      </c>
-      <c r="E79" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E79" s="1"/>
+      <c r="F79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
       </c>
       <c r="C80" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>3.1520001888275146</v>
-      </c>
-      <c r="E80" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B81" s="1">
         <v>0</v>
       </c>
       <c r="C81" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>1.0900000333786011</v>
-      </c>
-      <c r="E81" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
       </c>
       <c r="C82" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>0.93999999761581421</v>
-      </c>
-      <c r="E82" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
       </c>
       <c r="C83" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D83" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D83" s="1">
+        <v>4723</v>
+      </c>
       <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
       </c>
       <c r="C84" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>0.43666666746139526</v>
-      </c>
-      <c r="E84" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
       </c>
       <c r="C85" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>0</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
       </c>
       <c r="C86" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>0.43999999761581421</v>
-      </c>
-      <c r="E86" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
       </c>
       <c r="C87" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>0.4050000011920929</v>
-      </c>
-      <c r="E87" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E87" s="1"/>
+      <c r="F87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
@@ -1736,27 +2004,29 @@
         <v>0</v>
       </c>
       <c r="C88" s="1">
-        <v>4723</v>
+        <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>1.8069999217987061</v>
-      </c>
-      <c r="E88" s="1">
-        <v>0</v>
-      </c>
+        <v>4723</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
       </c>
       <c r="C89" s="1">
-        <v>4723</v>
-      </c>
-      <c r="D89" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="D89" s="1">
+        <v>4723</v>
+      </c>
       <c r="E89" s="1"/>
+      <c r="F89" s="1"/>
     </row>
   </sheetData>
 </worksheet>

--- a/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
+++ b/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
@@ -63,181 +63,181 @@
     <t>Platanos</t>
   </si>
   <si>
+    <t>Huevos (unidades)</t>
+  </si>
+  <si>
+    <t>Caraotas</t>
+  </si>
+  <si>
     <t>Leche en polvo, completa o descremada</t>
   </si>
   <si>
+    <t>Pescado fresco</t>
+  </si>
+  <si>
+    <t>Hueso de res, pata de res, pata de pollo</t>
+  </si>
+  <si>
+    <t>Papas</t>
+  </si>
+  <si>
+    <t>Cebolla</t>
+  </si>
+  <si>
+    <t>Cebollin, ajoporro, cilantro y similares</t>
+  </si>
+  <si>
+    <t>Pan de trigo</t>
+  </si>
+  <si>
+    <t>Aji dulce, pimenton, pimiento</t>
+  </si>
+  <si>
+    <t>Tomates</t>
+  </si>
+  <si>
+    <t>Cafe</t>
+  </si>
+  <si>
+    <t>Guayaba</t>
+  </si>
+  <si>
+    <t>Visceras (higado, riñonada, corazon, asadura, morcillas)</t>
+  </si>
+  <si>
+    <t>Nueces</t>
+  </si>
+  <si>
+    <t>Carne enlatada</t>
+  </si>
+  <si>
+    <t>Queso amarillo</t>
+  </si>
+  <si>
+    <t>Agua embotellada</t>
+  </si>
+  <si>
+    <t>Fororo</t>
+  </si>
+  <si>
+    <t>Miel</t>
+  </si>
+  <si>
+    <t>Sardinas frescas/congeladas</t>
+  </si>
+  <si>
+    <t>Otras salsas</t>
+  </si>
+  <si>
+    <t>Chuleta de cerdo ahumada</t>
+  </si>
+  <si>
+    <t>Chorizo, jamon, mortadela y otros embutidos</t>
+  </si>
+  <si>
+    <t>Jugos</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Auyama</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
     <t>Mayonesa</t>
   </si>
   <si>
-    <t>Huevos (unidades)</t>
-  </si>
-  <si>
-    <t>Caraotas</t>
-  </si>
-  <si>
-    <t>Pescado fresco</t>
-  </si>
-  <si>
-    <t>Papas</t>
-  </si>
-  <si>
-    <t>Cebolla</t>
-  </si>
-  <si>
-    <t>Pan de trigo</t>
-  </si>
-  <si>
-    <t>Cebollin, ajoporro, cilantro y similares</t>
-  </si>
-  <si>
-    <t>Aji dulce, pimenton, pimiento</t>
-  </si>
-  <si>
-    <t>Tomates</t>
-  </si>
-  <si>
-    <t>Cafe</t>
+    <t>Suero, natilla, nata</t>
+  </si>
+  <si>
+    <t>Avena, avena en hojuelas, harina de avena</t>
+  </si>
+  <si>
+    <t>Berenjena</t>
+  </si>
+  <si>
+    <t>Salsa de tomate</t>
+  </si>
+  <si>
+    <t>Edulcorantes</t>
+  </si>
+  <si>
+    <t>Pescado seco/salado</t>
+  </si>
+  <si>
+    <t>Ocumo</t>
+  </si>
+  <si>
+    <t>Aguacate</t>
+  </si>
+  <si>
+    <t>Queso requeson, ricota</t>
+  </si>
+  <si>
+    <t>Concentrados (cubitos, sopas de sobre)</t>
+  </si>
+  <si>
+    <t>Atun fresco/congelado</t>
+  </si>
+  <si>
+    <t>Galletas, dulces, saladas, integrales</t>
+  </si>
+  <si>
+    <t>Casabe</t>
+  </si>
+  <si>
+    <t>Pescado enlatado</t>
+  </si>
+  <si>
+    <t>Melaza</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Leche liquida, completa o descremada</t>
+  </si>
+  <si>
+    <t>Bebida achocolatada</t>
+  </si>
+  <si>
+    <t>Papelon</t>
+  </si>
+  <si>
+    <t>Gaseosas/refrescos</t>
   </si>
   <si>
     <t>Garbanzo</t>
   </si>
   <si>
+    <t>Mangos</t>
+  </si>
+  <si>
+    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
+  </si>
+  <si>
+    <t>Otras bebidas no alcoholicas</t>
+  </si>
+  <si>
+    <t>Merey</t>
+  </si>
+  <si>
+    <t>Zanahorias</t>
+  </si>
+  <si>
+    <t>Bebidas alcoholicas</t>
+  </si>
+  <si>
     <t>Lechosa</t>
-  </si>
-  <si>
-    <t>Otras bebidas no alcoholicas</t>
-  </si>
-  <si>
-    <t>Zanahorias</t>
-  </si>
-  <si>
-    <t>Lechuga</t>
-  </si>
-  <si>
-    <t>Apio</t>
-  </si>
-  <si>
-    <t>Te</t>
-  </si>
-  <si>
-    <t>Otras salsas</t>
-  </si>
-  <si>
-    <t>Edulcorantes</t>
-  </si>
-  <si>
-    <t>Chorizo, jamon, mortadela y otros embutidos</t>
-  </si>
-  <si>
-    <t>Miel</t>
-  </si>
-  <si>
-    <t>Papelon</t>
-  </si>
-  <si>
-    <t>Bebida achocolatada</t>
-  </si>
-  <si>
-    <t>Sardinas frescas/congeladas</t>
-  </si>
-  <si>
-    <t>Concentrados (cubitos, sopas de sobre)</t>
-  </si>
-  <si>
-    <t>Avena, avena en hojuelas, harina de avena</t>
-  </si>
-  <si>
-    <t>Pescado seco/salado</t>
-  </si>
-  <si>
-    <t>Suero, natilla, nata</t>
-  </si>
-  <si>
-    <t>Visceras (higado, riñonada, corazon, asadura, morcillas)</t>
-  </si>
-  <si>
-    <t>Galletas, dulces, saladas, integrales</t>
-  </si>
-  <si>
-    <t>Jugos</t>
-  </si>
-  <si>
-    <t>Casabe</t>
-  </si>
-  <si>
-    <t>Leche liquida, completa o descremada</t>
-  </si>
-  <si>
-    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
-  </si>
-  <si>
-    <t>Guayaba</t>
-  </si>
-  <si>
-    <t>Chuleta de cerdo ahumada</t>
-  </si>
-  <si>
-    <t>Carne enlatada</t>
-  </si>
-  <si>
-    <t>Nueces</t>
-  </si>
-  <si>
-    <t>Mangos</t>
-  </si>
-  <si>
-    <t>Melaza</t>
-  </si>
-  <si>
-    <t>Hueso de res, pata de res, pata de pollo</t>
-  </si>
-  <si>
-    <t>Auyama</t>
-  </si>
-  <si>
-    <t>Merey</t>
-  </si>
-  <si>
-    <t>Aguacate</t>
-  </si>
-  <si>
-    <t>Bebidas alcoholicas</t>
-  </si>
-  <si>
-    <t>Queso amarillo</t>
-  </si>
-  <si>
-    <t>Salsa de tomate</t>
-  </si>
-  <si>
-    <t>Gaseosas/refrescos</t>
-  </si>
-  <si>
-    <t>Berenjena</t>
-  </si>
-  <si>
-    <t>Ocumo</t>
-  </si>
-  <si>
-    <t>Agua embotellada</t>
-  </si>
-  <si>
-    <t>Queso requeson, ricota</t>
-  </si>
-  <si>
-    <t>Pescado enlatado</t>
-  </si>
-  <si>
-    <t>Fororo</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>Atun fresco/congelado</t>
-  </si>
-  <si>
-    <t>Mani</t>
   </si>
   <si>
     <t>Otro (especifique)</t>
@@ -329,19 +329,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>96.219112295279587</v>
+        <v>93.08775939569442</v>
       </c>
       <c r="C2" s="1">
-        <v>125.63386194155223</v>
+        <v>124.52423118930209</v>
       </c>
       <c r="D2" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E2" s="1">
         <v>3.8299999237060547</v>
       </c>
       <c r="F2" s="1">
-        <v>481.17767333984375</v>
+        <v>476.92779541015625</v>
       </c>
     </row>
     <row r="3">
@@ -349,19 +349,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>87.41568819143346</v>
+        <v>84.644793846031178</v>
       </c>
       <c r="C3" s="1">
-        <v>114.1391790891991</v>
+        <v>113.23000952285651</v>
       </c>
       <c r="D3" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E3" s="1">
         <v>3.4500000476837158</v>
       </c>
       <c r="F3" s="1">
-        <v>393.78018188476563</v>
+        <v>390.64352416992188</v>
       </c>
     </row>
     <row r="4">
@@ -369,19 +369,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>19.737660979583509</v>
+        <v>19.123046254724233</v>
       </c>
       <c r="C4" s="1">
-        <v>25.771581386954455</v>
+        <v>25.581049060343663</v>
       </c>
       <c r="D4" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>231.94422912597656</v>
+        <v>230.22944641113281</v>
       </c>
     </row>
     <row r="5">
@@ -389,19 +389,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>30.626721190113955</v>
+        <v>30.732859594514544</v>
       </c>
       <c r="C5" s="1">
-        <v>39.989490301458105</v>
+        <v>41.111589242577679</v>
       </c>
       <c r="D5" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E5" s="1">
         <v>3.934999942779541</v>
       </c>
       <c r="F5" s="1">
-        <v>157.358642578125</v>
+        <v>161.77410888671875</v>
       </c>
     </row>
     <row r="6">
@@ -409,19 +409,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>20.130819360659128</v>
+        <v>19.401022064853723</v>
       </c>
       <c r="C6" s="1">
-        <v>26.284929443713143</v>
+        <v>25.952900589997693</v>
       </c>
       <c r="D6" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E6" s="1">
         <v>3.684999942779541</v>
       </c>
       <c r="F6" s="1">
-        <v>96.859962463378906</v>
+        <v>95.636436462402344</v>
       </c>
     </row>
     <row r="7">
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>34.980793927499811</v>
+        <v>34.285715067606191</v>
       </c>
       <c r="C7" s="1">
-        <v>45.674628638373122</v>
+        <v>45.864271908281687</v>
       </c>
       <c r="D7" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E7" s="1">
         <v>1.8233332633972168</v>
       </c>
       <c r="F7" s="1">
-        <v>83.280067443847656</v>
+        <v>83.6258544921875</v>
       </c>
     </row>
     <row r="8">
@@ -449,19 +449,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>43.705575829917237</v>
+        <v>41.597277168902131</v>
       </c>
       <c r="C8" s="1">
-        <v>57.066627874784288</v>
+        <v>55.64500649721883</v>
       </c>
       <c r="D8" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E8" s="1">
         <v>1.375</v>
       </c>
       <c r="F8" s="1">
-        <v>78.46661376953125</v>
+        <v>76.511886596679688</v>
       </c>
     </row>
     <row r="9">
@@ -469,19 +469,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>27.397841132497373</v>
+        <v>26.652221796856153</v>
       </c>
       <c r="C9" s="1">
-        <v>35.773522600541042</v>
+        <v>35.652887785757606</v>
       </c>
       <c r="D9" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E9" s="1">
         <v>1.9650000333786011</v>
       </c>
       <c r="F9" s="1">
-        <v>70.294975280761719</v>
+        <v>70.05792236328125</v>
       </c>
     </row>
     <row r="10">
@@ -489,19 +489,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>14.045249814783242</v>
+        <v>13.877108938851569</v>
       </c>
       <c r="C10" s="1">
-        <v>18.338965379810677</v>
+        <v>18.563518093931584</v>
       </c>
       <c r="D10" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E10" s="1">
         <v>3.5499999523162842</v>
       </c>
       <c r="F10" s="1">
-        <v>65.103324890136719</v>
+        <v>65.900489807128906</v>
       </c>
     </row>
     <row r="11">
@@ -509,19 +509,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>14.435437959658501</v>
+        <v>16.475778236265171</v>
       </c>
       <c r="C11" s="1">
-        <v>18.848436411321099</v>
+        <v>22.03977879847633</v>
       </c>
       <c r="D11" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E11" s="1">
         <v>2.5450000762939453</v>
       </c>
       <c r="F11" s="1">
-        <v>47.969272613525391</v>
+        <v>56.091239929199219</v>
       </c>
     </row>
     <row r="12">
@@ -529,19 +529,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>30.587672092842393</v>
+        <v>28.842192394219396</v>
       </c>
       <c r="C12" s="1">
-        <v>39.938503641358324</v>
+        <v>38.582428700952335</v>
       </c>
       <c r="D12" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E12" s="1">
         <v>1.1337499618530273</v>
       </c>
       <c r="F12" s="1">
-        <v>45.280277252197266</v>
+        <v>43.742828369140625</v>
       </c>
     </row>
     <row r="13">
@@ -549,19 +549,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>5.4668644106340132</v>
+        <v>5.3194553136308942</v>
       </c>
       <c r="C13" s="1">
-        <v>7.1381170796358608</v>
+        <v>7.1158774145117043</v>
       </c>
       <c r="D13" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E13" s="1">
         <v>5.8400001525878906</v>
       </c>
       <c r="F13" s="1">
-        <v>41.686603546142578</v>
+        <v>41.556724548339844</v>
       </c>
     </row>
     <row r="14">
@@ -569,19 +569,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>15.609026189529867</v>
+        <v>16.204922298233015</v>
       </c>
       <c r="C14" s="1">
-        <v>20.380797466937956</v>
+        <v>21.677452649274599</v>
       </c>
       <c r="D14" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E14" s="1">
         <v>1.7400000095367432</v>
       </c>
       <c r="F14" s="1">
-        <v>35.462589263916016</v>
+        <v>37.718769073486328</v>
       </c>
     </row>
     <row r="15">
@@ -589,19 +589,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6.6105080440391202</v>
+        <v>6.6088842747400021</v>
       </c>
       <c r="C15" s="1">
-        <v>8.6313793025682113</v>
+        <v>8.8407567442690436</v>
       </c>
       <c r="D15" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E15" s="1">
         <v>4.0584616661071777</v>
       </c>
       <c r="F15" s="1">
-        <v>35.030120849609375</v>
+        <v>35.879871368408203</v>
       </c>
     </row>
     <row r="16">
@@ -609,19 +609,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>16.13260369095892</v>
+        <v>15.719857887276332</v>
       </c>
       <c r="C16" s="1">
-        <v>21.064435758960215</v>
+        <v>21.028577967816286</v>
       </c>
       <c r="D16" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E16" s="1">
         <v>1.6485714912414551</v>
       </c>
       <c r="F16" s="1">
-        <v>34.726226806640625</v>
+        <v>34.6671142578125</v>
       </c>
     </row>
     <row r="17">
@@ -629,19 +629,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>5.8119840669399752</v>
+        <v>15.874322860238353</v>
       </c>
       <c r="C17" s="1">
-        <v>7.5887418317259705</v>
+        <v>21.235207396287183</v>
       </c>
       <c r="D17" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E17" s="1">
-        <v>4.2849998474121094</v>
+        <v>1.4500000476837158</v>
       </c>
       <c r="F17" s="1">
-        <v>32.517757415771484</v>
+        <v>30.791051864624023</v>
       </c>
     </row>
     <row r="18">
@@ -649,19 +649,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>7.9289799116941522</v>
+        <v>16.197183570572513</v>
       </c>
       <c r="C18" s="1">
-        <v>10.352916163835843</v>
+        <v>21.667100505064266</v>
       </c>
       <c r="D18" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E18" s="1">
-        <v>3.0799999237060547</v>
+        <v>1.3511111736297607</v>
       </c>
       <c r="F18" s="1">
-        <v>31.886980056762695</v>
+        <v>29.274662017822266</v>
       </c>
     </row>
     <row r="19">
@@ -669,19 +669,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>16.211623967817065</v>
+        <v>5.1013776350382996</v>
       </c>
       <c r="C19" s="1">
-        <v>21.167612287823033</v>
+        <v>6.8241531969279148</v>
       </c>
       <c r="D19" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E19" s="1">
-        <v>1.4500000476837158</v>
+        <v>4.2849998474121094</v>
       </c>
       <c r="F19" s="1">
-        <v>30.693038940429688</v>
+        <v>29.241495132446289</v>
       </c>
     </row>
     <row r="20">
@@ -689,19 +689,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>15.580291450212952</v>
+        <v>23.606253470113966</v>
       </c>
       <c r="C20" s="1">
-        <v>20.343278355853879</v>
+        <v>31.578271795791512</v>
       </c>
       <c r="D20" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E20" s="1">
-        <v>1.3511111736297607</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="F20" s="1">
-        <v>27.486030578613281</v>
+        <v>26.841531753540039</v>
       </c>
     </row>
     <row r="21">
@@ -709,19 +709,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>24.544025287470674</v>
+        <v>9.939947659377804</v>
       </c>
       <c r="C21" s="1">
-        <v>32.047278376572621</v>
+        <v>13.296746554844816</v>
       </c>
       <c r="D21" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E21" s="1">
-        <v>0.85000002384185791</v>
+        <v>1.8324999809265137</v>
       </c>
       <c r="F21" s="1">
-        <v>27.24018669128418</v>
+        <v>24.366287231445313</v>
       </c>
     </row>
     <row r="22">
@@ -729,19 +729,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>12.000242315458337</v>
+        <v>13.268689429902048</v>
       </c>
       <c r="C22" s="1">
-        <v>15.668787100091466</v>
+        <v>17.749630739991094</v>
       </c>
       <c r="D22" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E22" s="1">
         <v>1.2246154546737671</v>
       </c>
       <c r="F22" s="1">
-        <v>19.188238143920898</v>
+        <v>21.736471176147461</v>
       </c>
     </row>
     <row r="23">
@@ -749,19 +749,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>12.604277188258481</v>
+        <v>12.82340220681766</v>
       </c>
       <c r="C23" s="1">
-        <v>16.457479089037886</v>
+        <v>17.153966390996171</v>
       </c>
       <c r="D23" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E23" s="1">
         <v>0.40000000596046448</v>
       </c>
       <c r="F23" s="1">
-        <v>6.5829916000366211</v>
+        <v>6.8615865707397461</v>
       </c>
     </row>
     <row r="24">
@@ -769,19 +769,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>1.412237991399238</v>
+        <v>6.839963001083837</v>
       </c>
       <c r="C24" s="1">
-        <v>1.8439675338586812</v>
+        <v>9.1498725814654023</v>
       </c>
       <c r="D24" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E24" s="1">
-        <v>2.8466665744781494</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="F24" s="1">
-        <v>5.2491607666015625</v>
+        <v>5.1696782112121582</v>
       </c>
     </row>
     <row r="25">
@@ -789,19 +789,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>6.7290766949424441</v>
+        <v>1.2893669821200882</v>
       </c>
       <c r="C25" s="1">
-        <v>8.7861950559533302</v>
+        <v>1.7247963665624353</v>
       </c>
       <c r="D25" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E25" s="1">
-        <v>0.56499999761581421</v>
+        <v>2.8466665744781494</v>
       </c>
       <c r="F25" s="1">
-        <v>4.9642000198364258</v>
+        <v>4.9099202156066895</v>
       </c>
     </row>
     <row r="26">
@@ -809,19 +809,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>9.9591967984828909</v>
+        <v>9.623618800513535</v>
       </c>
       <c r="C26" s="1">
-        <v>13.003781988992799</v>
+        <v>12.873590815390177</v>
       </c>
       <c r="D26" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E26" s="1">
         <v>0.34999999403953552</v>
       </c>
       <c r="F26" s="1">
-        <v>4.551323413848877</v>
+        <v>4.5057568550109863</v>
       </c>
     </row>
     <row r="27">
@@ -829,19 +829,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>8.6227883585877976</v>
+        <v>8.7325183727888476</v>
       </c>
       <c r="C27" s="1">
-        <v>11.258825547660328</v>
+        <v>11.681558829087477</v>
       </c>
       <c r="D27" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E27" s="1">
         <v>0.23000000417232513</v>
       </c>
       <c r="F27" s="1">
-        <v>2.5895299911499023</v>
+        <v>2.6867585182189941</v>
       </c>
     </row>
     <row r="28">
@@ -849,19 +849,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>9.6470163293039288</v>
+        <v>9.7292990808497279</v>
       </c>
       <c r="C28" s="1">
-        <v>12.596166011213423</v>
+        <v>13.014960325112968</v>
       </c>
       <c r="D28" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E28" s="1">
         <v>0.05000000074505806</v>
       </c>
       <c r="F28" s="1">
-        <v>0.62980830669403076</v>
+        <v>0.65074801445007324</v>
       </c>
     </row>
     <row r="29">
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E29" s="1">
-        <v>2.9000000953674316</v>
+        <v>0.70999997854232788</v>
       </c>
       <c r="F29" s="1">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E30" s="1">
-        <v>0.31000000238418579</v>
+        <v>2.1766667366027832</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E31" s="1">
-        <v>0.4050000011920929</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E32" s="1">
-        <v>0.4699999988079071</v>
+        <v>2.2000000476837158</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E33" s="1">
-        <v>0.18000000715255737</v>
+        <v>2.9300000667572021</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E34" s="1">
-        <v>0.25999999046325684</v>
+        <v>0</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E35" s="1">
-        <v>0.039999999105930328</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E36" s="1">
-        <v>0.93999999761581421</v>
+        <v>3.3199999332427979</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E37" s="1">
-        <v>3.5999999046325684</v>
+        <v>1.4500000476837158</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E38" s="1">
-        <v>2.7799999713897705</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E39" s="1">
-        <v>3.3199999332427979</v>
+        <v>2.0099999904632568</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E40" s="1">
-        <v>3.6700000762939453</v>
+        <v>2.7799999713897705</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E41" s="1">
-        <v>0.88999998569488525</v>
+        <v>0.43666666746139526</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E42" s="1">
-        <v>1.4500000476837158</v>
+        <v>6.3449997901916504</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E43" s="1">
-        <v>3.1520001888275146</v>
+        <v>0.18000000715255737</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E44" s="1">
-        <v>4.125</v>
+        <v>0.039999999105930328</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E45" s="1">
-        <v>2.7300000190734863</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>0</v>
+        <v>17.309611965723956</v>
       </c>
       <c r="C46" s="1">
-        <v>0</v>
+        <v>23.155204769591212</v>
       </c>
       <c r="D46" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E46" s="1">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E47" s="1">
-        <v>2.1766667366027832</v>
+        <v>3.0799999237060547</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E48" s="1">
-        <v>4.5275001525878906</v>
+        <v>1.75</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E49" s="1">
-        <v>0.43666666746139526</v>
+        <v>4.125</v>
       </c>
       <c r="F49" s="1">
         <v>0</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E50" s="1">
-        <v>3.3299999237060547</v>
+        <v>0.37000000476837158</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E51" s="1">
-        <v>0.44499999284744263</v>
+        <v>1.0900000333786011</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E52" s="1">
-        <v>1.9199999570846558</v>
+        <v>3.5999999046325684</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E53" s="1">
-        <v>0.70999997854232788</v>
+        <v>2.7300000190734863</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E54" s="1">
-        <v>2.0099999904632568</v>
+        <v>1.2000000476837158</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E55" s="1">
-        <v>2.2000000476837158</v>
+        <v>2</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E56" s="1">
-        <v>7.2100000381469727</v>
+        <v>0.87999999523162842</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E57" s="1">
-        <v>0.79000002145767212</v>
+        <v>3.1520001888275146</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E58" s="1">
-        <v>3.6400001049041748</v>
+        <v>1.1100000143051147</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E59" s="1">
-        <v>1.8324999809265137</v>
+        <v>4.5275001525878906</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E60" s="1">
-        <v>0.38999998569488525</v>
+        <v>3.3299999237060547</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E61" s="1">
-        <v>5.6700000762939453</v>
+        <v>1.690000057220459</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E62" s="1">
-        <v>2</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E63" s="1">
-        <v>1.8069999217987061</v>
+        <v>0.25999999046325684</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E64" s="1">
-        <v>2.9300000667572021</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E65" s="1">
-        <v>1.0900000333786011</v>
+        <v>0.88999998569488525</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E66" s="1">
-        <v>0.43999999761581421</v>
+        <v>3.6700000762939453</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E67" s="1">
-        <v>0.37000000476837158</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E68" s="1">
-        <v>1.2000000476837158</v>
+        <v>2.9000000953674316</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E69" s="1">
-        <v>0</v>
+        <v>0.79000002145767212</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E70" s="1">
-        <v>0.87999999523162842</v>
+        <v>1.9199999570846558</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -1715,10 +1715,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E71" s="1">
-        <v>1.690000057220459</v>
+        <v>0.4050000011920929</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E72" s="1">
-        <v>3.7999999523162842</v>
+        <v>5.6700000762939453</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -1749,16 +1749,16 @@
         <v>72</v>
       </c>
       <c r="B73" s="1">
-        <v>17.259490476834831</v>
+        <v>0</v>
       </c>
       <c r="C73" s="1">
-        <v>22.535818373730393</v>
+        <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E73" s="1">
-        <v>0</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E74" s="1">
-        <v>1.1100000143051147</v>
+        <v>1.8069999217987061</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -1795,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E75" s="1">
-        <v>6.3449997901916504</v>
+        <v>0.31000000238418579</v>
       </c>
       <c r="F75" s="1">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -1847,7 +1847,7 @@
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -1863,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
@@ -1911,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
@@ -1927,7 +1927,7 @@
         <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
@@ -1959,7 +1959,7 @@
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -1975,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -2007,7 +2007,7 @@
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>4723</v>
+        <v>4615</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>

--- a/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
+++ b/poverty_measurement/input/canastapercapita_metocol_sin_outliars.xlsx
@@ -39,36 +39,39 @@
     <t>Pastas alimenticias</t>
   </si>
   <si>
+    <t>Maiz en granos</t>
+  </si>
+  <si>
     <t>Carne de res (bistec, carne molida, carne para esmechar)</t>
   </si>
   <si>
-    <t>Maiz en granos</t>
-  </si>
-  <si>
     <t>Lentejas</t>
   </si>
   <si>
+    <t>Mayonesa</t>
+  </si>
+  <si>
     <t>Cambur</t>
   </si>
   <si>
     <t>Margarina/Mantequilla</t>
   </si>
   <si>
+    <t>Frijoles</t>
+  </si>
+  <si>
     <t>Carne de pollo</t>
   </si>
   <si>
-    <t>Frijoles</t>
-  </si>
-  <si>
     <t>Platanos</t>
   </si>
   <si>
+    <t>Caraotas</t>
+  </si>
+  <si>
     <t>Huevos (unidades)</t>
   </si>
   <si>
-    <t>Caraotas</t>
-  </si>
-  <si>
     <t>Leche en polvo, completa o descremada</t>
   </si>
   <si>
@@ -99,148 +102,145 @@
     <t>Cafe</t>
   </si>
   <si>
+    <t>Agua embotellada</t>
+  </si>
+  <si>
+    <t>Gaseosas/refrescos</t>
+  </si>
+  <si>
+    <t>Atun fresco/congelado</t>
+  </si>
+  <si>
+    <t>Miel</t>
+  </si>
+  <si>
+    <t>Papelon</t>
+  </si>
+  <si>
+    <t>Pescado seco/salado</t>
+  </si>
+  <si>
+    <t>Galletas, dulces, saladas, integrales</t>
+  </si>
+  <si>
+    <t>Lechosa</t>
+  </si>
+  <si>
+    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
+  </si>
+  <si>
+    <t>Jugos</t>
+  </si>
+  <si>
+    <t>Mani</t>
+  </si>
+  <si>
+    <t>Queso amarillo</t>
+  </si>
+  <si>
+    <t>Garbanzo</t>
+  </si>
+  <si>
     <t>Guayaba</t>
   </si>
   <si>
+    <t>Leche liquida, completa o descremada</t>
+  </si>
+  <si>
+    <t>Pescado enlatado</t>
+  </si>
+  <si>
+    <t>Bebidas alcoholicas</t>
+  </si>
+  <si>
+    <t>Auyama</t>
+  </si>
+  <si>
+    <t>Edulcorantes</t>
+  </si>
+  <si>
+    <t>Avena, avena en hojuelas, harina de avena</t>
+  </si>
+  <si>
+    <t>Casabe</t>
+  </si>
+  <si>
+    <t>Aguacate</t>
+  </si>
+  <si>
+    <t>Melaza</t>
+  </si>
+  <si>
+    <t>Mangos</t>
+  </si>
+  <si>
+    <t>Queso requeson, ricota</t>
+  </si>
+  <si>
+    <t>Berenjena</t>
+  </si>
+  <si>
+    <t>Apio</t>
+  </si>
+  <si>
+    <t>Lechuga</t>
+  </si>
+  <si>
+    <t>Salsa de tomate</t>
+  </si>
+  <si>
+    <t>Chorizo, jamon, mortadela y otros embutidos</t>
+  </si>
+  <si>
+    <t>Sardinas frescas/congeladas</t>
+  </si>
+  <si>
+    <t>Otras salsas</t>
+  </si>
+  <si>
+    <t>Otras bebidas no alcoholicas</t>
+  </si>
+  <si>
+    <t>Fororo</t>
+  </si>
+  <si>
     <t>Visceras (higado, riñonada, corazon, asadura, morcillas)</t>
   </si>
   <si>
     <t>Nueces</t>
   </si>
   <si>
+    <t>Merey</t>
+  </si>
+  <si>
+    <t>Bebida achocolatada</t>
+  </si>
+  <si>
+    <t>Zanahorias</t>
+  </si>
+  <si>
+    <t>Chuleta de cerdo ahumada</t>
+  </si>
+  <si>
+    <t>Concentrados (cubitos, sopas de sobre)</t>
+  </si>
+  <si>
+    <t>Sal</t>
+  </si>
+  <si>
+    <t>Ocumo</t>
+  </si>
+  <si>
+    <t>Suero, natilla, nata</t>
+  </si>
+  <si>
+    <t>Te</t>
+  </si>
+  <si>
+    <t>Otro (especifique)</t>
+  </si>
+  <si>
     <t>Carne enlatada</t>
-  </si>
-  <si>
-    <t>Queso amarillo</t>
-  </si>
-  <si>
-    <t>Agua embotellada</t>
-  </si>
-  <si>
-    <t>Fororo</t>
-  </si>
-  <si>
-    <t>Miel</t>
-  </si>
-  <si>
-    <t>Sardinas frescas/congeladas</t>
-  </si>
-  <si>
-    <t>Otras salsas</t>
-  </si>
-  <si>
-    <t>Chuleta de cerdo ahumada</t>
-  </si>
-  <si>
-    <t>Chorizo, jamon, mortadela y otros embutidos</t>
-  </si>
-  <si>
-    <t>Jugos</t>
-  </si>
-  <si>
-    <t>Mani</t>
-  </si>
-  <si>
-    <t>Lechuga</t>
-  </si>
-  <si>
-    <t>Te</t>
-  </si>
-  <si>
-    <t>Auyama</t>
-  </si>
-  <si>
-    <t>Sal</t>
-  </si>
-  <si>
-    <t>Mayonesa</t>
-  </si>
-  <si>
-    <t>Suero, natilla, nata</t>
-  </si>
-  <si>
-    <t>Avena, avena en hojuelas, harina de avena</t>
-  </si>
-  <si>
-    <t>Berenjena</t>
-  </si>
-  <si>
-    <t>Salsa de tomate</t>
-  </si>
-  <si>
-    <t>Edulcorantes</t>
-  </si>
-  <si>
-    <t>Pescado seco/salado</t>
-  </si>
-  <si>
-    <t>Ocumo</t>
-  </si>
-  <si>
-    <t>Aguacate</t>
-  </si>
-  <si>
-    <t>Queso requeson, ricota</t>
-  </si>
-  <si>
-    <t>Concentrados (cubitos, sopas de sobre)</t>
-  </si>
-  <si>
-    <t>Atun fresco/congelado</t>
-  </si>
-  <si>
-    <t>Galletas, dulces, saladas, integrales</t>
-  </si>
-  <si>
-    <t>Casabe</t>
-  </si>
-  <si>
-    <t>Pescado enlatado</t>
-  </si>
-  <si>
-    <t>Melaza</t>
-  </si>
-  <si>
-    <t>Apio</t>
-  </si>
-  <si>
-    <t>Leche liquida, completa o descremada</t>
-  </si>
-  <si>
-    <t>Bebida achocolatada</t>
-  </si>
-  <si>
-    <t>Papelon</t>
-  </si>
-  <si>
-    <t>Gaseosas/refrescos</t>
-  </si>
-  <si>
-    <t>Garbanzo</t>
-  </si>
-  <si>
-    <t>Mangos</t>
-  </si>
-  <si>
-    <t>Carne de cerdo fresca (chuleta, costilla, pernil)</t>
-  </si>
-  <si>
-    <t>Otras bebidas no alcoholicas</t>
-  </si>
-  <si>
-    <t>Merey</t>
-  </si>
-  <si>
-    <t>Zanahorias</t>
-  </si>
-  <si>
-    <t>Bebidas alcoholicas</t>
-  </si>
-  <si>
-    <t>Lechosa</t>
-  </si>
-  <si>
-    <t>Otro (especifique)</t>
   </si>
   <si>
     <t>cantidad_h</t>
@@ -329,19 +329,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>93.08775939569442</v>
+        <v>93.027027450584825</v>
       </c>
       <c r="C2" s="1">
-        <v>124.52423118930209</v>
+        <v>120.00132452648279</v>
       </c>
       <c r="D2" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E2" s="1">
         <v>3.8299999237060547</v>
       </c>
       <c r="F2" s="1">
-        <v>476.92779541015625</v>
+        <v>459.60507202148438</v>
       </c>
     </row>
     <row r="3">
@@ -349,19 +349,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>84.644793846031178</v>
+        <v>85.921575516924023</v>
       </c>
       <c r="C3" s="1">
-        <v>113.23000952285651</v>
+        <v>110.83556192919544</v>
       </c>
       <c r="D3" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E3" s="1">
         <v>3.4500000476837158</v>
       </c>
       <c r="F3" s="1">
-        <v>390.64352416992188</v>
+        <v>382.3826904296875</v>
       </c>
     </row>
     <row r="4">
@@ -369,19 +369,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>19.123046254724233</v>
+        <v>19.278077655527337</v>
       </c>
       <c r="C4" s="1">
-        <v>25.581049060343663</v>
+        <v>24.867986383407938</v>
       </c>
       <c r="D4" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E4" s="1">
         <v>9</v>
       </c>
       <c r="F4" s="1">
-        <v>230.22944641113281</v>
+        <v>223.81187438964844</v>
       </c>
     </row>
     <row r="5">
@@ -389,19 +389,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>30.732859594514544</v>
+        <v>30.877311464690912</v>
       </c>
       <c r="C5" s="1">
-        <v>41.111589242577679</v>
+        <v>39.830557651715381</v>
       </c>
       <c r="D5" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E5" s="1">
         <v>3.934999942779541</v>
       </c>
       <c r="F5" s="1">
-        <v>161.77410888671875</v>
+        <v>156.73324584960938</v>
       </c>
     </row>
     <row r="6">
@@ -409,19 +409,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>19.401022064853723</v>
+        <v>19.48817111882429</v>
       </c>
       <c r="C6" s="1">
-        <v>25.952900589997693</v>
+        <v>25.138999652217471</v>
       </c>
       <c r="D6" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E6" s="1">
         <v>3.684999942779541</v>
       </c>
       <c r="F6" s="1">
-        <v>95.636436462402344</v>
+        <v>92.637214660644531</v>
       </c>
     </row>
     <row r="7">
@@ -429,19 +429,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>34.285715067606191</v>
+        <v>36.3330328152894</v>
       </c>
       <c r="C7" s="1">
-        <v>45.864271908281687</v>
+        <v>46.868229648158092</v>
       </c>
       <c r="D7" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E7" s="1">
         <v>1.8233332633972168</v>
       </c>
       <c r="F7" s="1">
-        <v>83.6258544921875</v>
+        <v>85.456405639648438</v>
       </c>
     </row>
     <row r="8">
@@ -449,19 +449,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>41.597277168902131</v>
+        <v>41.847200455895525</v>
       </c>
       <c r="C8" s="1">
-        <v>55.64500649721883</v>
+        <v>53.981296577178938</v>
       </c>
       <c r="D8" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E8" s="1">
         <v>1.375</v>
       </c>
       <c r="F8" s="1">
-        <v>76.511886596679688</v>
+        <v>74.224281311035156</v>
       </c>
     </row>
     <row r="9">
@@ -469,19 +469,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="1">
-        <v>26.652221796856153</v>
+        <v>15.329946225162367</v>
       </c>
       <c r="C9" s="1">
-        <v>35.652887785757606</v>
+        <v>19.775047110803726</v>
       </c>
       <c r="D9" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E9" s="1">
-        <v>1.9650000333786011</v>
+        <v>3.5499999523162842</v>
       </c>
       <c r="F9" s="1">
-        <v>70.05792236328125</v>
+        <v>70.201416015625</v>
       </c>
     </row>
     <row r="10">
@@ -489,19 +489,19 @@
         <v>9</v>
       </c>
       <c r="B10" s="1">
-        <v>13.877108938851569</v>
+        <v>26.52660530497355</v>
       </c>
       <c r="C10" s="1">
-        <v>18.563518093931584</v>
+        <v>34.21831188705481</v>
       </c>
       <c r="D10" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E10" s="1">
-        <v>3.5499999523162842</v>
+        <v>1.9650000333786011</v>
       </c>
       <c r="F10" s="1">
-        <v>65.900489807128906</v>
+        <v>67.238983154296875</v>
       </c>
     </row>
     <row r="11">
@@ -509,19 +509,19 @@
         <v>10</v>
       </c>
       <c r="B11" s="1">
-        <v>16.475778236265171</v>
+        <v>17.0568254089189</v>
       </c>
       <c r="C11" s="1">
-        <v>22.03977879847633</v>
+        <v>22.002656117188938</v>
       </c>
       <c r="D11" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E11" s="1">
         <v>2.5450000762939453</v>
       </c>
       <c r="F11" s="1">
-        <v>56.091239929199219</v>
+        <v>55.996761322021484</v>
       </c>
     </row>
     <row r="12">
@@ -529,19 +529,19 @@
         <v>11</v>
       </c>
       <c r="B12" s="1">
-        <v>28.842192394219396</v>
+        <v>11.598298267872865</v>
       </c>
       <c r="C12" s="1">
-        <v>38.582428700952335</v>
+        <v>14.961363627378425</v>
       </c>
       <c r="D12" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E12" s="1">
-        <v>1.1337499618530273</v>
+        <v>3.0799999237060547</v>
       </c>
       <c r="F12" s="1">
-        <v>43.742828369140625</v>
+        <v>46.080997467041016</v>
       </c>
     </row>
     <row r="13">
@@ -549,19 +549,19 @@
         <v>12</v>
       </c>
       <c r="B13" s="1">
-        <v>5.3194553136308942</v>
+        <v>28.98918440850208</v>
       </c>
       <c r="C13" s="1">
-        <v>7.1158774145117043</v>
+        <v>37.39494500023919</v>
       </c>
       <c r="D13" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E13" s="1">
-        <v>5.8400001525878906</v>
+        <v>1.1337499618530273</v>
       </c>
       <c r="F13" s="1">
-        <v>41.556724548339844</v>
+        <v>42.396518707275391</v>
       </c>
     </row>
     <row r="14">
@@ -569,19 +569,19 @@
         <v>13</v>
       </c>
       <c r="B14" s="1">
-        <v>16.204922298233015</v>
+        <v>5.3285434945504164</v>
       </c>
       <c r="C14" s="1">
-        <v>21.677452649274599</v>
+        <v>6.8736184932715814</v>
       </c>
       <c r="D14" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E14" s="1">
-        <v>1.7400000095367432</v>
+        <v>5.8400001525878906</v>
       </c>
       <c r="F14" s="1">
-        <v>37.718769073486328</v>
+        <v>40.141933441162109</v>
       </c>
     </row>
     <row r="15">
@@ -589,19 +589,19 @@
         <v>14</v>
       </c>
       <c r="B15" s="1">
-        <v>6.6088842747400021</v>
+        <v>7.0368756165859248</v>
       </c>
       <c r="C15" s="1">
-        <v>8.8407567442690436</v>
+        <v>9.0773019759435982</v>
       </c>
       <c r="D15" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E15" s="1">
         <v>4.0584616661071777</v>
       </c>
       <c r="F15" s="1">
-        <v>35.879871368408203</v>
+        <v>36.839881896972656</v>
       </c>
     </row>
     <row r="16">
@@ -609,19 +609,19 @@
         <v>15</v>
       </c>
       <c r="B16" s="1">
-        <v>15.719857887276332</v>
+        <v>16.201178726659911</v>
       </c>
       <c r="C16" s="1">
-        <v>21.028577967816286</v>
+        <v>20.898904329300343</v>
       </c>
       <c r="D16" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E16" s="1">
-        <v>1.6485714912414551</v>
+        <v>1.7400000095367432</v>
       </c>
       <c r="F16" s="1">
-        <v>34.6671142578125</v>
+        <v>36.364093780517578</v>
       </c>
     </row>
     <row r="17">
@@ -629,19 +629,19 @@
         <v>16</v>
       </c>
       <c r="B17" s="1">
-        <v>15.874322860238353</v>
+        <v>15.751691315076821</v>
       </c>
       <c r="C17" s="1">
-        <v>21.235207396287183</v>
+        <v>20.319082446163875</v>
       </c>
       <c r="D17" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E17" s="1">
-        <v>1.4500000476837158</v>
+        <v>1.6485714912414551</v>
       </c>
       <c r="F17" s="1">
-        <v>30.791051864624023</v>
+        <v>33.497459411621094</v>
       </c>
     </row>
     <row r="18">
@@ -649,19 +649,19 @@
         <v>17</v>
       </c>
       <c r="B18" s="1">
-        <v>16.197183570572513</v>
+        <v>16.918114012306809</v>
       </c>
       <c r="C18" s="1">
-        <v>21.667100505064266</v>
+        <v>21.823723782417218</v>
       </c>
       <c r="D18" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E18" s="1">
         <v>1.3511111736297607</v>
       </c>
       <c r="F18" s="1">
-        <v>29.274662017822266</v>
+        <v>29.486276626586914</v>
       </c>
     </row>
     <row r="19">
@@ -669,19 +669,19 @@
         <v>18</v>
       </c>
       <c r="B19" s="1">
-        <v>5.1013776350382996</v>
+        <v>15.749509055204015</v>
       </c>
       <c r="C19" s="1">
-        <v>6.8241531969279148</v>
+        <v>20.316266548469706</v>
       </c>
       <c r="D19" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E19" s="1">
-        <v>4.2849998474121094</v>
+        <v>1.4500000476837158</v>
       </c>
       <c r="F19" s="1">
-        <v>29.241495132446289</v>
+        <v>29.458587646484375</v>
       </c>
     </row>
     <row r="20">
@@ -689,19 +689,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="1">
-        <v>23.606253470113966</v>
+        <v>5.2969048545008377</v>
       </c>
       <c r="C20" s="1">
-        <v>31.578271795791512</v>
+        <v>6.8328058778420306</v>
       </c>
       <c r="D20" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E20" s="1">
-        <v>0.85000002384185791</v>
+        <v>4.2849998474121094</v>
       </c>
       <c r="F20" s="1">
-        <v>26.841531753540039</v>
+        <v>29.278572082519531</v>
       </c>
     </row>
     <row r="21">
@@ -709,19 +709,19 @@
         <v>20</v>
       </c>
       <c r="B21" s="1">
-        <v>9.939947659377804</v>
+        <v>24.709330083604414</v>
       </c>
       <c r="C21" s="1">
-        <v>13.296746554844816</v>
+        <v>31.874095654139062</v>
       </c>
       <c r="D21" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E21" s="1">
-        <v>1.8324999809265137</v>
+        <v>0.85000002384185791</v>
       </c>
       <c r="F21" s="1">
-        <v>24.366287231445313</v>
+        <v>27.092981338500977</v>
       </c>
     </row>
     <row r="22">
@@ -729,19 +729,19 @@
         <v>21</v>
       </c>
       <c r="B22" s="1">
-        <v>13.268689429902048</v>
+        <v>10.444188439895459</v>
       </c>
       <c r="C22" s="1">
-        <v>17.749630739991094</v>
+        <v>13.472605777468297</v>
       </c>
       <c r="D22" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E22" s="1">
-        <v>1.2246154546737671</v>
+        <v>1.8324999809265137</v>
       </c>
       <c r="F22" s="1">
-        <v>21.736471176147461</v>
+        <v>24.688549041748047</v>
       </c>
     </row>
     <row r="23">
@@ -749,19 +749,19 @@
         <v>22</v>
       </c>
       <c r="B23" s="1">
-        <v>12.82340220681766</v>
+        <v>12.806490188130848</v>
       </c>
       <c r="C23" s="1">
-        <v>17.153966390996171</v>
+        <v>16.519885333687775</v>
       </c>
       <c r="D23" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E23" s="1">
-        <v>0.40000000596046448</v>
+        <v>1.2246154546737671</v>
       </c>
       <c r="F23" s="1">
-        <v>6.8615865707397461</v>
+        <v>20.230506896972656</v>
       </c>
     </row>
     <row r="24">
@@ -769,19 +769,19 @@
         <v>23</v>
       </c>
       <c r="B24" s="1">
-        <v>6.839963001083837</v>
+        <v>12.950032991221605</v>
       </c>
       <c r="C24" s="1">
-        <v>9.1498725814654023</v>
+        <v>16.705050011272128</v>
       </c>
       <c r="D24" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E24" s="1">
-        <v>0.56499999761581421</v>
+        <v>0.40000000596046448</v>
       </c>
       <c r="F24" s="1">
-        <v>5.1696782112121582</v>
+        <v>6.6820201873779297</v>
       </c>
     </row>
     <row r="25">
@@ -789,19 +789,19 @@
         <v>24</v>
       </c>
       <c r="B25" s="1">
-        <v>1.2893669821200882</v>
+        <v>6.8207039879368772</v>
       </c>
       <c r="C25" s="1">
-        <v>1.7247963665624353</v>
+        <v>8.7984487689428388</v>
       </c>
       <c r="D25" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E25" s="1">
-        <v>2.8466665744781494</v>
+        <v>0.56499999761581421</v>
       </c>
       <c r="F25" s="1">
-        <v>4.9099202156066895</v>
+        <v>4.9711236953735352</v>
       </c>
     </row>
     <row r="26">
@@ -809,19 +809,19 @@
         <v>25</v>
       </c>
       <c r="B26" s="1">
-        <v>9.623618800513535</v>
+        <v>1.3205947559160254</v>
       </c>
       <c r="C26" s="1">
-        <v>12.873590815390177</v>
+        <v>1.7035170045711576</v>
       </c>
       <c r="D26" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E26" s="1">
-        <v>0.34999999403953552</v>
+        <v>2.8466665744781494</v>
       </c>
       <c r="F26" s="1">
-        <v>4.5057568550109863</v>
+        <v>4.8493447303771973</v>
       </c>
     </row>
     <row r="27">
@@ -829,19 +829,19 @@
         <v>26</v>
       </c>
       <c r="B27" s="1">
-        <v>8.7325183727888476</v>
+        <v>9.7475142745297472</v>
       </c>
       <c r="C27" s="1">
-        <v>11.681558829087477</v>
+        <v>12.573922625853196</v>
       </c>
       <c r="D27" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E27" s="1">
-        <v>0.23000000417232513</v>
+        <v>0.34999999403953552</v>
       </c>
       <c r="F27" s="1">
-        <v>2.6867585182189941</v>
+        <v>4.4008727073669434</v>
       </c>
     </row>
     <row r="28">
@@ -849,19 +849,19 @@
         <v>27</v>
       </c>
       <c r="B28" s="1">
-        <v>9.7292990808497279</v>
+        <v>8.7055891647938157</v>
       </c>
       <c r="C28" s="1">
-        <v>13.014960325112968</v>
+        <v>11.229878943532984</v>
       </c>
       <c r="D28" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E28" s="1">
-        <v>0.05000000074505806</v>
+        <v>0.23000000417232513</v>
       </c>
       <c r="F28" s="1">
-        <v>0.65074801445007324</v>
+        <v>2.5828721523284912</v>
       </c>
     </row>
     <row r="29">
@@ -869,19 +869,19 @@
         <v>28</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>10.379975915605419</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>13.38977427849883</v>
       </c>
       <c r="D29" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E29" s="1">
-        <v>0.70999997854232788</v>
+        <v>0.05000000074505806</v>
       </c>
       <c r="F29" s="1">
-        <v>0</v>
+        <v>0.66948872804641724</v>
       </c>
     </row>
     <row r="30">
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E30" s="1">
-        <v>2.1766667366027832</v>
+        <v>0</v>
       </c>
       <c r="F30" s="1">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E31" s="1">
-        <v>7.2100000381469727</v>
+        <v>0.43999999761581421</v>
       </c>
       <c r="F31" s="1">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E32" s="1">
-        <v>2.2000000476837158</v>
+        <v>1.1100000143051147</v>
       </c>
       <c r="F32" s="1">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E33" s="1">
-        <v>2.9300000667572021</v>
+        <v>3.3199999332427979</v>
       </c>
       <c r="F33" s="1">
         <v>0</v>
@@ -975,10 +975,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E34" s="1">
-        <v>0</v>
+        <v>3.6700000762939453</v>
       </c>
       <c r="F34" s="1">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E35" s="1">
-        <v>3.7999999523162842</v>
+        <v>2.7300000190734863</v>
       </c>
       <c r="F35" s="1">
         <v>0</v>
@@ -1015,10 +1015,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E36" s="1">
-        <v>3.3199999332427979</v>
+        <v>4.5275001525878906</v>
       </c>
       <c r="F36" s="1">
         <v>0</v>
@@ -1035,10 +1035,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E37" s="1">
-        <v>1.4500000476837158</v>
+        <v>0.31000000238418579</v>
       </c>
       <c r="F37" s="1">
         <v>0</v>
@@ -1055,10 +1055,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E38" s="1">
-        <v>0.93999999761581421</v>
+        <v>1.9199999570846558</v>
       </c>
       <c r="F38" s="1">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E39" s="1">
-        <v>2.0099999904632568</v>
+        <v>0.43666666746139526</v>
       </c>
       <c r="F39" s="1">
         <v>0</v>
@@ -1095,10 +1095,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E40" s="1">
-        <v>2.7799999713897705</v>
+        <v>6.3449997901916504</v>
       </c>
       <c r="F40" s="1">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E41" s="1">
-        <v>0.43666666746139526</v>
+        <v>2.9300000667572021</v>
       </c>
       <c r="F41" s="1">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E42" s="1">
-        <v>6.3449997901916504</v>
+        <v>2.9000000953674316</v>
       </c>
       <c r="F42" s="1">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E43" s="1">
-        <v>0.18000000715255737</v>
+        <v>0.70999997854232788</v>
       </c>
       <c r="F43" s="1">
         <v>0</v>
@@ -1175,10 +1175,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E44" s="1">
-        <v>0.039999999105930328</v>
+        <v>0.44499999284744263</v>
       </c>
       <c r="F44" s="1">
         <v>0</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E45" s="1">
-        <v>0.38999998569488525</v>
+        <v>1.690000057220459</v>
       </c>
       <c r="F45" s="1">
         <v>0</v>
@@ -1209,16 +1209,16 @@
         <v>45</v>
       </c>
       <c r="B46" s="1">
-        <v>17.309611965723956</v>
+        <v>0</v>
       </c>
       <c r="C46" s="1">
-        <v>23.155204769591212</v>
+        <v>0</v>
       </c>
       <c r="D46" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E46" s="1">
-        <v>0</v>
+        <v>1.8069999217987061</v>
       </c>
       <c r="F46" s="1">
         <v>0</v>
@@ -1235,10 +1235,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E47" s="1">
-        <v>3.0799999237060547</v>
+        <v>0.38999998569488525</v>
       </c>
       <c r="F47" s="1">
         <v>0</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E48" s="1">
-        <v>1.75</v>
+        <v>3.5999999046325684</v>
       </c>
       <c r="F48" s="1">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="D49" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E49" s="1">
         <v>4.125</v>
@@ -1295,10 +1295,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E50" s="1">
-        <v>0.37000000476837158</v>
+        <v>3.3299999237060547</v>
       </c>
       <c r="F50" s="1">
         <v>0</v>
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E51" s="1">
-        <v>1.0900000333786011</v>
+        <v>2</v>
       </c>
       <c r="F51" s="1">
         <v>0</v>
@@ -1335,10 +1335,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E52" s="1">
-        <v>3.5999999046325684</v>
+        <v>3.6400001049041748</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -1355,10 +1355,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E53" s="1">
-        <v>2.7300000190734863</v>
+        <v>0.79000002145767212</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -1375,10 +1375,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E54" s="1">
-        <v>1.2000000476837158</v>
+        <v>0.87999999523162842</v>
       </c>
       <c r="F54" s="1">
         <v>0</v>
@@ -1395,10 +1395,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E55" s="1">
-        <v>2</v>
+        <v>0.37000000476837158</v>
       </c>
       <c r="F55" s="1">
         <v>0</v>
@@ -1415,10 +1415,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E56" s="1">
-        <v>0.87999999523162842</v>
+        <v>0.25999999046325684</v>
       </c>
       <c r="F56" s="1">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="D57" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E57" s="1">
-        <v>3.1520001888275146</v>
+        <v>0.18000000715255737</v>
       </c>
       <c r="F57" s="1">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E58" s="1">
-        <v>1.1100000143051147</v>
+        <v>1.0900000333786011</v>
       </c>
       <c r="F58" s="1">
         <v>0</v>
@@ -1475,10 +1475,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E59" s="1">
-        <v>4.5275001525878906</v>
+        <v>2.7799999713897705</v>
       </c>
       <c r="F59" s="1">
         <v>0</v>
@@ -1495,10 +1495,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E60" s="1">
-        <v>3.3299999237060547</v>
+        <v>1.4500000476837158</v>
       </c>
       <c r="F60" s="1">
         <v>0</v>
@@ -1515,10 +1515,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E61" s="1">
-        <v>1.690000057220459</v>
+        <v>0.93999999761581421</v>
       </c>
       <c r="F61" s="1">
         <v>0</v>
@@ -1535,10 +1535,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E62" s="1">
-        <v>3.6400001049041748</v>
+        <v>0.4050000011920929</v>
       </c>
       <c r="F62" s="1">
         <v>0</v>
@@ -1555,10 +1555,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E63" s="1">
-        <v>0.25999999046325684</v>
+        <v>3.7999999523162842</v>
       </c>
       <c r="F63" s="1">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E64" s="1">
-        <v>0.44499999284744263</v>
+        <v>2.1766667366027832</v>
       </c>
       <c r="F64" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E65" s="1">
-        <v>0.88999998569488525</v>
+        <v>7.2100000381469727</v>
       </c>
       <c r="F65" s="1">
         <v>0</v>
@@ -1615,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E66" s="1">
-        <v>3.6700000762939453</v>
+        <v>5.6700000762939453</v>
       </c>
       <c r="F66" s="1">
         <v>0</v>
@@ -1635,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E67" s="1">
-        <v>0.43999999761581421</v>
+        <v>0.88999998569488525</v>
       </c>
       <c r="F67" s="1">
         <v>0</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E68" s="1">
-        <v>2.9000000953674316</v>
+        <v>0.4699999988079071</v>
       </c>
       <c r="F68" s="1">
         <v>0</v>
@@ -1675,10 +1675,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E69" s="1">
-        <v>0.79000002145767212</v>
+        <v>2.0099999904632568</v>
       </c>
       <c r="F69" s="1">
         <v>0</v>
@@ -1695,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E70" s="1">
-        <v>1.9199999570846558</v>
+        <v>3.1520001888275146</v>
       </c>
       <c r="F70" s="1">
         <v>0</v>
@@ -1709,16 +1709,16 @@
         <v>70</v>
       </c>
       <c r="B71" s="1">
-        <v>0</v>
+        <v>17.129048788388847</v>
       </c>
       <c r="C71" s="1">
-        <v>0</v>
+        <v>22.09582167266889</v>
       </c>
       <c r="D71" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E71" s="1">
-        <v>0.4050000011920929</v>
+        <v>0</v>
       </c>
       <c r="F71" s="1">
         <v>0</v>
@@ -1735,10 +1735,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E72" s="1">
-        <v>5.6700000762939453</v>
+        <v>1.2000000476837158</v>
       </c>
       <c r="F72" s="1">
         <v>0</v>
@@ -1755,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E73" s="1">
-        <v>0.4699999988079071</v>
+        <v>1.75</v>
       </c>
       <c r="F73" s="1">
         <v>0</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E74" s="1">
-        <v>1.8069999217987061</v>
+        <v>0.039999999105930328</v>
       </c>
       <c r="F74" s="1">
         <v>0</v>
@@ -1795,18 +1795,14 @@
         <v>0</v>
       </c>
       <c r="D75" s="1">
-        <v>4615</v>
-      </c>
-      <c r="E75" s="1">
-        <v>0.31000000238418579</v>
-      </c>
-      <c r="F75" s="1">
-        <v>0</v>
-      </c>
+        <v>4583</v>
+      </c>
+      <c r="E75" s="1"/>
+      <c r="F75" s="1"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B76" s="1">
         <v>0</v>
@@ -1815,14 +1811,14 @@
         <v>0</v>
       </c>
       <c r="D76" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B77" s="1">
         <v>0</v>
@@ -1831,14 +1827,14 @@
         <v>0</v>
       </c>
       <c r="D77" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B78" s="1">
         <v>0</v>
@@ -1847,14 +1843,14 @@
         <v>0</v>
       </c>
       <c r="D78" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B79" s="1">
         <v>0</v>
@@ -1863,14 +1859,14 @@
         <v>0</v>
       </c>
       <c r="D79" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B80" s="1">
         <v>0</v>
@@ -1879,7 +1875,7 @@
         <v>0</v>
       </c>
       <c r="D80" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
@@ -1895,14 +1891,14 @@
         <v>0</v>
       </c>
       <c r="D81" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B82" s="1">
         <v>0</v>
@@ -1911,14 +1907,14 @@
         <v>0</v>
       </c>
       <c r="D82" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B83" s="1">
         <v>0</v>
@@ -1927,14 +1923,14 @@
         <v>0</v>
       </c>
       <c r="D83" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B84" s="1">
         <v>0</v>
@@ -1943,14 +1939,14 @@
         <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B85" s="1">
         <v>0</v>
@@ -1959,14 +1955,14 @@
         <v>0</v>
       </c>
       <c r="D85" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" s="1">
         <v>0</v>
@@ -1975,14 +1971,14 @@
         <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B87" s="1">
         <v>0</v>
@@ -1991,14 +1987,14 @@
         <v>0</v>
       </c>
       <c r="D87" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B88" s="1">
         <v>0</v>
@@ -2007,14 +2003,14 @@
         <v>0</v>
       </c>
       <c r="D88" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B89" s="1">
         <v>0</v>
@@ -2023,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="D89" s="1">
-        <v>4615</v>
+        <v>4583</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
